--- a/SI Barcoding Network FIMS template.xlsx
+++ b/SI Barcoding Network FIMS template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julia/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E94350-A969-604F-BD90-4FE9A78B07DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A4B007-A908-FE4B-BD48-DF02AA77676C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="2080" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1084" uniqueCount="1003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="963">
   <si>
     <t>~naan=21547~</t>
   </si>
@@ -215,36 +215,18 @@
     <t>scientificName as the lowest taxon identified, use TBD if you do not have the information at hand (and update it later)</t>
   </si>
   <si>
-    <t>dayIdentified</t>
-  </si>
-  <si>
-    <t>The day on which the subject was identified as representing the Taxon.</t>
-  </si>
-  <si>
     <t>reproductiveCondition</t>
   </si>
   <si>
-    <t>monthIdentified</t>
-  </si>
-  <si>
-    <t>The month on which the subject was identified as representing the Taxon. Must be numeric to pass validation</t>
-  </si>
-  <si>
     <t>non-reproductive</t>
   </si>
   <si>
     <t>pregnant</t>
   </si>
   <si>
-    <t>yearIdentified</t>
-  </si>
-  <si>
     <t>derivedDataType</t>
   </si>
   <si>
-    <t>The year on which the subject was identified as representing the Taxon.</t>
-  </si>
-  <si>
     <t>Microsat</t>
   </si>
   <si>
@@ -254,9 +236,6 @@
     <t>SNP</t>
   </si>
   <si>
-    <t>The process by which the biological individual(s) represented in the Occurrence became established at the location. Recommended best practice is to use a controlled vocabulary. See associated list in ''lists'' tab.</t>
-  </si>
-  <si>
     <t>OTU</t>
   </si>
   <si>
@@ -269,18 +248,12 @@
     <t>FASTQ</t>
   </si>
   <si>
-    <t>The sex of the biological individual(s) represented in the Occurrence. Recommended best practice is to use a controlled vocabulary. See associated list on lists tab.</t>
-  </si>
-  <si>
     <t>subClass</t>
   </si>
   <si>
     <t>derivedDataFormat</t>
   </si>
   <si>
-    <t>The full scientific name of the subClass in which the taxon is classified</t>
-  </si>
-  <si>
     <t>genpop</t>
   </si>
   <si>
@@ -290,15 +263,6 @@
     <t>FASTA</t>
   </si>
   <si>
-    <t>The full scientific name of the subFamily in which the taxon is classified</t>
-  </si>
-  <si>
-    <t>taxonRemarks</t>
-  </si>
-  <si>
-    <t>Comments or notes about the taxon or name. For example: this name is a misspelling in common use</t>
-  </si>
-  <si>
     <t>voucherCatalogNumber</t>
   </si>
   <si>
@@ -314,9 +278,6 @@
     <t>PAR meter pointed upwards near coral</t>
   </si>
   <si>
-    <t>The age class or life stage of the biological individual(s) at the time the Occurrence was recorded. Recommended best practice is to use a controlled vocabulary.</t>
-  </si>
-  <si>
     <t>none</t>
   </si>
   <si>
@@ -332,33 +293,15 @@
     <t>A list (concatenated and separated) of names of people, groups, or organizations who assigned the Taxon to the subject.</t>
   </si>
   <si>
-    <t>associatedMedia</t>
-  </si>
-  <si>
-    <t>Photos, videos etc of the individual. From Darwincore: A list (concatenated and separated) of identifiers (publication, global unique identifier, URI,DOI) of media associated with the Occurrence.</t>
-  </si>
-  <si>
     <t>measurementSide</t>
   </si>
   <si>
-    <t>fieldNumber</t>
-  </si>
-  <si>
     <t>left</t>
   </si>
   <si>
-    <t>An identifier given to the event in the field. Often serves as a link between field notes and the Event.</t>
-  </si>
-  <si>
     <t>right</t>
   </si>
   <si>
-    <t>genbankSpecimenVoucher</t>
-  </si>
-  <si>
-    <t>A field to populate the /specimen_voucher qualifier field for submissions to Genbank.  Please refer to the instructions for populating /specimen_voucher at the &lt;a href='https://www.ncbi.nlm.nih.gov/books/NBK53701/'&gt;Genbank Submission Handbook&lt;/a&gt;.</t>
-  </si>
-  <si>
     <t>boldProcessID</t>
   </si>
   <si>
@@ -368,39 +311,21 @@
     <t>measurementUnit</t>
   </si>
   <si>
-    <t>occurrenceRemarks</t>
-  </si>
-  <si>
     <t>mm</t>
   </si>
   <si>
-    <t>Comments or notes about the Occurrence. For example: found dead on road</t>
-  </si>
-  <si>
     <t>cm</t>
   </si>
   <si>
-    <t>organismRemarks</t>
-  </si>
-  <si>
     <t>m</t>
   </si>
   <si>
-    <t>Comments or notes about the Organism instance.</t>
-  </si>
-  <si>
     <t>in</t>
   </si>
   <si>
-    <t>identificationRemarks</t>
-  </si>
-  <si>
     <t>ft</t>
   </si>
   <si>
-    <t>Comments or notes about the Identification. For example: Distinguished between Anthus correndera and Anthus hellmayri based on the comparative lengths of the uñas.</t>
-  </si>
-  <si>
     <t>km</t>
   </si>
   <si>
@@ -446,15 +371,9 @@
     <t>tissuePlate</t>
   </si>
   <si>
-    <t>samplingProtocol</t>
-  </si>
-  <si>
     <t>AB 5500x-Wl Genetic Analyzer</t>
   </si>
   <si>
-    <t>The name of, reference to, or description of the method or protocol used during an Event.</t>
-  </si>
-  <si>
     <t>AB 5500xl Genetic Analyzer</t>
   </si>
   <si>
@@ -491,15 +410,9 @@
     <t>AB SOLiD System 2.0</t>
   </si>
   <si>
-    <t>county</t>
-  </si>
-  <si>
     <t>AB SOLiD System 3.0</t>
   </si>
   <si>
-    <t>The full, unabbreviated name of the next smaller administrative region than stateProvince (county, shire, department, etc.) in which the Location occurs.</t>
-  </si>
-  <si>
     <t>dayCollected</t>
   </si>
   <si>
@@ -551,33 +464,12 @@
     <t>AB 3730xL Genetic Analyzer</t>
   </si>
   <si>
-    <t>A category or description of the habitat in which the Event occurred.</t>
-  </si>
-  <si>
-    <t>municipality</t>
-  </si>
-  <si>
     <t>COMPLETE_GENOMICS</t>
   </si>
   <si>
-    <t>The full, unabbreviated name of the next smaller administrative region than county (city, municipality, etc.) in which the Location occurs. Do not use this term for a nearby named place that does not contain the actual location.</t>
-  </si>
-  <si>
     <t>Complete Genomics</t>
   </si>
   <si>
-    <t>permitInformation</t>
-  </si>
-  <si>
-    <t>Information regarding the permit.</t>
-  </si>
-  <si>
-    <t>stateProvince</t>
-  </si>
-  <si>
-    <t>The name of the next smaller administrative region than country (state, province, canton, department, region, etc.) in which the Location occurs.</t>
-  </si>
-  <si>
     <t>HELICOS</t>
   </si>
   <si>
@@ -656,25 +548,13 @@
     <t>Illumina MiSeq</t>
   </si>
   <si>
-    <t>tissuePreservative</t>
-  </si>
-  <si>
     <t>NextSeq 500</t>
   </si>
   <si>
-    <t>Presersvative of this tissue</t>
-  </si>
-  <si>
     <t>NextSeq 550</t>
   </si>
   <si>
     <t>preservative</t>
-  </si>
-  <si>
-    <t>tissueInstitution</t>
-  </si>
-  <si>
-    <t>Institution  name or acronym which maintains ownership of the tissue</t>
   </si>
   <si>
     <t>ION_TORRENT</t>
@@ -3496,10 +3376,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AL1"/>
+  <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3523,27 +3403,22 @@
     <col min="17" max="17" width="7.1640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="13" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="17" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="17" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" ht="19" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -3560,22 +3435,22 @@
         <v>56</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>23</v>
@@ -3602,74 +3477,155 @@
         <v>52</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>155</v>
+        <v>137</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>218</v>
-      </c>
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+      <c r="W3" s="4"/>
+    </row>
+    <row r="4" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+      <c r="W4" s="4"/>
+    </row>
+    <row r="5" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+      <c r="W7" s="4"/>
+    </row>
+    <row r="8" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+      <c r="W8" s="4"/>
+    </row>
+    <row r="9" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+      <c r="W9" s="4"/>
+    </row>
+    <row r="10" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+      <c r="W10" s="4"/>
+    </row>
+    <row r="11" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+      <c r="W11" s="4"/>
+    </row>
+    <row r="12" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+      <c r="W12" s="4"/>
+    </row>
+    <row r="13" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+      <c r="W13" s="2"/>
+    </row>
+    <row r="14" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+      <c r="W14" s="2"/>
+    </row>
+    <row r="15" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+      <c r="W15" s="2"/>
+    </row>
+    <row r="16" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+      <c r="W16" s="2"/>
+    </row>
+    <row r="17" spans="23:23" ht="19" x14ac:dyDescent="0.2">
+      <c r="W17" s="2"/>
+    </row>
+    <row r="18" spans="23:23" ht="19" x14ac:dyDescent="0.2">
+      <c r="W18" s="2"/>
+    </row>
+    <row r="19" spans="23:23" ht="19" x14ac:dyDescent="0.2">
+      <c r="W19" s="2"/>
+    </row>
+    <row r="20" spans="23:23" ht="19" x14ac:dyDescent="0.2">
+      <c r="W20" s="2"/>
+    </row>
+    <row r="21" spans="23:23" ht="19" x14ac:dyDescent="0.2">
+      <c r="W21" s="2"/>
+    </row>
+    <row r="22" spans="23:23" ht="19" x14ac:dyDescent="0.2">
+      <c r="W22" s="2"/>
+    </row>
+    <row r="23" spans="23:23" ht="19" x14ac:dyDescent="0.2">
+      <c r="W23" s="2"/>
+    </row>
+    <row r="24" spans="23:23" ht="19" x14ac:dyDescent="0.2">
+      <c r="W24" s="2"/>
+    </row>
+    <row r="25" spans="23:23" ht="19" x14ac:dyDescent="0.2">
+      <c r="W25" s="2"/>
+    </row>
+    <row r="26" spans="23:23" ht="19" x14ac:dyDescent="0.2">
+      <c r="W26" s="2"/>
+    </row>
+    <row r="27" spans="23:23" ht="19" x14ac:dyDescent="0.2">
+      <c r="W27" s="2"/>
+    </row>
+    <row r="28" spans="23:23" ht="19" x14ac:dyDescent="0.2">
+      <c r="W28" s="2"/>
+    </row>
+    <row r="29" spans="23:23" ht="19" x14ac:dyDescent="0.2">
+      <c r="W29" s="2"/>
+    </row>
+    <row r="30" spans="23:23" ht="19" x14ac:dyDescent="0.2">
+      <c r="W30" s="2"/>
+    </row>
+    <row r="31" spans="23:23" ht="19" x14ac:dyDescent="0.2">
+      <c r="W31" s="2"/>
+    </row>
+    <row r="32" spans="23:23" ht="19" x14ac:dyDescent="0.2">
+      <c r="W32" s="2"/>
+    </row>
+    <row r="33" spans="23:23" ht="19" x14ac:dyDescent="0.2">
+      <c r="W33" s="2"/>
+    </row>
+    <row r="34" spans="23:23" ht="19" x14ac:dyDescent="0.2">
+      <c r="W34" s="2"/>
+    </row>
+    <row r="35" spans="23:23" ht="19" x14ac:dyDescent="0.2">
+      <c r="W35" s="2"/>
+    </row>
+    <row r="36" spans="23:23" ht="19" x14ac:dyDescent="0.2">
+      <c r="W36" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" errorStyle="information" allowBlank="1" showErrorMessage="1" errorTitle="Data Validation Warning" error="The value you entered is not from the recommended list. This will create a warning upon validation." xr:uid="{00000000-0002-0000-0100-000005000000}">
-          <x14:formula1>
-            <xm:f>Lists!AM2:AM30</xm:f>
-          </x14:formula1>
-          <xm:sqref>AI2:AI100001</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Data Validation Error" error="The value you entered is not from the recommended list. This will create an error upon validation." xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Lists!V2:V283</xm:f>
@@ -3690,9 +3646,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -3716,28 +3674,28 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
-        <v>11</v>
+    <row r="2" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
-        <v>18</v>
+      <c r="A3" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="160" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.2">
@@ -3749,451 +3707,247 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>27</v>
+      <c r="A6" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="80" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>39</v>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>122</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+    <row r="14" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B14" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>61</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>67</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>71</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="96" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="B33" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="160" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="112" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="80" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="64" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="96" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>220</v>
-      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:H94">
+    <sortCondition ref="H59:H94"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4261,124 +4015,124 @@
         <v>43</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>110</v>
+        <v>91</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="V1" s="2" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>547</v>
+        <v>507</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>560</v>
+        <v>520</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>695</v>
+        <v>655</v>
       </c>
       <c r="AB1" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="AF1" s="2" t="s">
         <v>700</v>
       </c>
-      <c r="AC1" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>740</v>
-      </c>
       <c r="AG1" s="2" t="s">
-        <v>748</v>
+        <v>708</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>787</v>
+        <v>747</v>
       </c>
       <c r="AJ1" s="2" t="s">
         <v>30</v>
       </c>
       <c r="AK1" s="2" t="s">
-        <v>922</v>
+        <v>882</v>
       </c>
       <c r="AL1" s="2" t="s">
-        <v>923</v>
+        <v>883</v>
       </c>
       <c r="AM1" s="2" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
       <c r="AN1" s="2" t="s">
-        <v>961</v>
+        <v>921</v>
       </c>
       <c r="AO1" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AP1" s="2" t="s">
-        <v>988</v>
+        <v>948</v>
       </c>
       <c r="AQ1" s="2" t="s">
-        <v>1000</v>
+        <v>960</v>
       </c>
       <c r="AR1" s="2" t="s">
         <v>18</v>
@@ -4395,127 +4149,127 @@
         <v>45</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>112</v>
-      </c>
       <c r="J2" s="5" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>183</v>
+        <v>147</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>186</v>
+        <v>150</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>217</v>
+        <v>177</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
       <c r="Q2" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="V2" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="R2" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>239</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>265</v>
-      </c>
       <c r="W2" s="5" t="s">
-        <v>548</v>
+        <v>508</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>555</v>
+        <v>515</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>561</v>
+        <v>521</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>578</v>
+        <v>538</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>696</v>
+        <v>656</v>
       </c>
       <c r="AB2" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="AC2" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="AD2" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="AE2" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="AF2" s="5" t="s">
         <v>701</v>
       </c>
-      <c r="AC2" s="5" t="s">
-        <v>704</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>710</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>713</v>
-      </c>
-      <c r="AF2" s="5" t="s">
-        <v>741</v>
-      </c>
       <c r="AG2" s="5" t="s">
-        <v>749</v>
+        <v>709</v>
       </c>
       <c r="AH2" s="5" t="s">
-        <v>772</v>
+        <v>732</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>788</v>
+        <v>748</v>
       </c>
       <c r="AJ2" s="5" t="s">
-        <v>801</v>
+        <v>761</v>
       </c>
       <c r="AK2" s="5" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="AL2" s="5" t="s">
-        <v>924</v>
+        <v>884</v>
       </c>
       <c r="AM2" s="5" t="s">
-        <v>932</v>
+        <v>892</v>
       </c>
       <c r="AN2" s="5" t="s">
-        <v>962</v>
+        <v>922</v>
       </c>
       <c r="AO2" s="5" t="s">
-        <v>977</v>
+        <v>937</v>
       </c>
       <c r="AP2" s="5" t="s">
         <v>35</v>
       </c>
       <c r="AQ2" s="5" t="s">
-        <v>704</v>
+        <v>664</v>
       </c>
       <c r="AR2" s="5" t="s">
-        <v>1001</v>
+        <v>961</v>
       </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.2">
@@ -4529,121 +4283,121 @@
         <v>47</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="F3" s="5" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="N3" s="5" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>219</v>
+        <v>179</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>223</v>
+        <v>183</v>
       </c>
       <c r="Q3" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="S3" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="U3" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="V3" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="R3" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>266</v>
-      </c>
       <c r="W3" s="5" t="s">
-        <v>549</v>
+        <v>509</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>556</v>
+        <v>516</v>
       </c>
       <c r="Y3" s="5" t="s">
-        <v>562</v>
+        <v>522</v>
       </c>
       <c r="Z3" s="5" t="s">
-        <v>579</v>
+        <v>539</v>
       </c>
       <c r="AA3" s="5" t="s">
-        <v>697</v>
+        <v>657</v>
       </c>
       <c r="AB3" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="AC3" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="AD3" s="5" t="s">
+        <v>671</v>
+      </c>
+      <c r="AE3" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="AF3" s="5" t="s">
         <v>702</v>
       </c>
-      <c r="AC3" s="5" t="s">
-        <v>705</v>
-      </c>
-      <c r="AD3" s="5" t="s">
-        <v>711</v>
-      </c>
-      <c r="AE3" s="5" t="s">
-        <v>714</v>
-      </c>
-      <c r="AF3" s="5" t="s">
-        <v>742</v>
-      </c>
       <c r="AG3" s="5" t="s">
-        <v>750</v>
+        <v>710</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>773</v>
+        <v>733</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>789</v>
+        <v>749</v>
       </c>
       <c r="AJ3" s="5" t="s">
-        <v>802</v>
+        <v>762</v>
       </c>
       <c r="AK3" s="5" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="AL3" s="5" t="s">
-        <v>925</v>
+        <v>885</v>
       </c>
       <c r="AM3" s="5" t="s">
-        <v>933</v>
+        <v>893</v>
       </c>
       <c r="AN3" s="5" t="s">
-        <v>963</v>
+        <v>923</v>
       </c>
       <c r="AO3" s="5" t="s">
-        <v>978</v>
+        <v>938</v>
       </c>
       <c r="AP3" s="5" t="s">
         <v>41</v>
       </c>
       <c r="AQ3" s="5" t="s">
-        <v>705</v>
+        <v>665</v>
       </c>
       <c r="AR3" s="5" t="s">
-        <v>531</v>
+        <v>491</v>
       </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.2">
@@ -4654,97 +4408,97 @@
         <v>49</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="N4" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="R4" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="R4" s="5" t="s">
-        <v>230</v>
-      </c>
       <c r="S4" s="5" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="T4" s="5" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="U4" s="5" t="s">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="V4" s="5" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="W4" s="5" t="s">
-        <v>550</v>
+        <v>510</v>
       </c>
       <c r="X4" s="5" t="s">
-        <v>557</v>
+        <v>517</v>
       </c>
       <c r="Y4" s="5" t="s">
-        <v>563</v>
+        <v>523</v>
       </c>
       <c r="Z4" s="5" t="s">
-        <v>580</v>
+        <v>540</v>
       </c>
       <c r="AA4" s="5" t="s">
-        <v>698</v>
+        <v>658</v>
       </c>
       <c r="AC4" s="5" t="s">
-        <v>706</v>
+        <v>666</v>
       </c>
       <c r="AE4" s="5" t="s">
-        <v>715</v>
+        <v>675</v>
       </c>
       <c r="AF4" s="5" t="s">
-        <v>743</v>
+        <v>703</v>
       </c>
       <c r="AG4" s="5" t="s">
-        <v>751</v>
+        <v>711</v>
       </c>
       <c r="AH4" s="5" t="s">
-        <v>774</v>
+        <v>734</v>
       </c>
       <c r="AI4" s="5" t="s">
-        <v>790</v>
+        <v>750</v>
       </c>
       <c r="AJ4" s="5" t="s">
-        <v>803</v>
+        <v>763</v>
       </c>
       <c r="AK4" s="5" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="AL4" s="5" t="s">
-        <v>926</v>
+        <v>886</v>
       </c>
       <c r="AM4" s="5" t="s">
-        <v>934</v>
+        <v>894</v>
       </c>
       <c r="AN4" s="5" t="s">
-        <v>964</v>
+        <v>924</v>
       </c>
       <c r="AO4" s="5" t="s">
-        <v>979</v>
+        <v>939</v>
       </c>
       <c r="AP4" s="5" t="s">
         <v>44</v>
       </c>
       <c r="AR4" s="5" t="s">
-        <v>1002</v>
+        <v>962</v>
       </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.2">
@@ -4755,88 +4509,88 @@
         <v>51</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="N5" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="R5" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="R5" s="5" t="s">
-        <v>231</v>
-      </c>
       <c r="T5" s="5" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="U5" s="5" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="V5" s="5" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
       <c r="W5" s="5" t="s">
-        <v>551</v>
+        <v>511</v>
       </c>
       <c r="X5" s="5" t="s">
-        <v>558</v>
+        <v>518</v>
       </c>
       <c r="Y5" s="5" t="s">
-        <v>564</v>
+        <v>524</v>
       </c>
       <c r="Z5" s="5" t="s">
-        <v>581</v>
+        <v>541</v>
       </c>
       <c r="AA5" s="5" t="s">
-        <v>699</v>
+        <v>659</v>
       </c>
       <c r="AC5" s="5" t="s">
-        <v>707</v>
+        <v>667</v>
       </c>
       <c r="AE5" s="5" t="s">
-        <v>716</v>
+        <v>676</v>
       </c>
       <c r="AF5" s="5" t="s">
-        <v>744</v>
+        <v>704</v>
       </c>
       <c r="AG5" s="5" t="s">
-        <v>752</v>
+        <v>712</v>
       </c>
       <c r="AH5" s="5" t="s">
-        <v>775</v>
+        <v>735</v>
       </c>
       <c r="AI5" s="5" t="s">
-        <v>791</v>
+        <v>751</v>
       </c>
       <c r="AJ5" s="5" t="s">
-        <v>804</v>
+        <v>764</v>
       </c>
       <c r="AK5" s="5" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="AL5" s="5" t="s">
-        <v>729</v>
+        <v>689</v>
       </c>
       <c r="AM5" s="5" t="s">
-        <v>935</v>
+        <v>895</v>
       </c>
       <c r="AN5" s="5" t="s">
-        <v>965</v>
+        <v>925</v>
       </c>
       <c r="AO5" s="5" t="s">
-        <v>980</v>
+        <v>940</v>
       </c>
       <c r="AP5" s="5" t="s">
-        <v>989</v>
+        <v>949</v>
       </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.2">
@@ -4847,82 +4601,82 @@
         <v>53</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="N6" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="R6" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="R6" s="5" t="s">
-        <v>232</v>
-      </c>
       <c r="T6" s="5" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="U6" s="5" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="V6" s="5" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="W6" s="5" t="s">
-        <v>552</v>
+        <v>512</v>
       </c>
       <c r="X6" s="5" t="s">
-        <v>559</v>
+        <v>519</v>
       </c>
       <c r="Y6" s="5" t="s">
-        <v>565</v>
+        <v>525</v>
       </c>
       <c r="Z6" s="5" t="s">
-        <v>582</v>
+        <v>542</v>
       </c>
       <c r="AC6" s="5" t="s">
-        <v>708</v>
+        <v>668</v>
       </c>
       <c r="AE6" s="5" t="s">
-        <v>717</v>
+        <v>677</v>
       </c>
       <c r="AF6" s="5" t="s">
-        <v>745</v>
+        <v>705</v>
       </c>
       <c r="AG6" s="5" t="s">
-        <v>753</v>
+        <v>713</v>
       </c>
       <c r="AH6" s="5" t="s">
-        <v>776</v>
+        <v>736</v>
       </c>
       <c r="AI6" s="5" t="s">
-        <v>792</v>
+        <v>752</v>
       </c>
       <c r="AJ6" s="5" t="s">
-        <v>805</v>
+        <v>765</v>
       </c>
       <c r="AK6" s="5" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="AL6" s="5" t="s">
-        <v>927</v>
+        <v>887</v>
       </c>
       <c r="AM6" s="5" t="s">
-        <v>936</v>
+        <v>896</v>
       </c>
       <c r="AN6" s="5" t="s">
-        <v>966</v>
+        <v>926</v>
       </c>
       <c r="AO6" s="5" t="s">
-        <v>981</v>
+        <v>941</v>
       </c>
       <c r="AP6" s="5" t="s">
-        <v>990</v>
+        <v>950</v>
       </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.2">
@@ -4930,73 +4684,73 @@
         <v>55</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="R7" s="5" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
       <c r="T7" s="5" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="U7" s="5" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="V7" s="5" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="W7" s="5" t="s">
-        <v>553</v>
+        <v>513</v>
       </c>
       <c r="Y7" s="5" t="s">
-        <v>566</v>
+        <v>526</v>
       </c>
       <c r="Z7" s="5" t="s">
-        <v>583</v>
+        <v>543</v>
       </c>
       <c r="AE7" s="5" t="s">
-        <v>718</v>
+        <v>678</v>
       </c>
       <c r="AF7" s="5" t="s">
-        <v>746</v>
+        <v>706</v>
       </c>
       <c r="AG7" s="5" t="s">
-        <v>754</v>
+        <v>714</v>
       </c>
       <c r="AH7" s="5" t="s">
-        <v>777</v>
+        <v>737</v>
       </c>
       <c r="AI7" s="5" t="s">
-        <v>793</v>
+        <v>753</v>
       </c>
       <c r="AJ7" s="5" t="s">
-        <v>806</v>
+        <v>766</v>
       </c>
       <c r="AK7" s="5" t="s">
-        <v>214</v>
+        <v>174</v>
       </c>
       <c r="AL7" s="5" t="s">
-        <v>928</v>
+        <v>888</v>
       </c>
       <c r="AM7" s="5" t="s">
-        <v>937</v>
+        <v>897</v>
       </c>
       <c r="AN7" s="5" t="s">
-        <v>967</v>
+        <v>927</v>
       </c>
       <c r="AO7" s="5" t="s">
-        <v>982</v>
+        <v>942</v>
       </c>
       <c r="AP7" s="5" t="s">
-        <v>991</v>
+        <v>951</v>
       </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.2">
@@ -5004,67 +4758,67 @@
         <v>57</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c r="T8" s="5" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>261</v>
+        <v>221</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>554</v>
+        <v>514</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>567</v>
+        <v>527</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>584</v>
+        <v>544</v>
       </c>
       <c r="AE8" s="5" t="s">
-        <v>719</v>
+        <v>679</v>
       </c>
       <c r="AF8" s="5" t="s">
-        <v>747</v>
+        <v>707</v>
       </c>
       <c r="AG8" s="5" t="s">
-        <v>755</v>
+        <v>715</v>
       </c>
       <c r="AH8" s="5" t="s">
-        <v>778</v>
+        <v>738</v>
       </c>
       <c r="AI8" s="5" t="s">
-        <v>794</v>
+        <v>754</v>
       </c>
       <c r="AJ8" s="5" t="s">
-        <v>807</v>
+        <v>767</v>
       </c>
       <c r="AK8" s="5" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="AL8" s="5" t="s">
-        <v>929</v>
+        <v>889</v>
       </c>
       <c r="AM8" s="5" t="s">
-        <v>938</v>
+        <v>898</v>
       </c>
       <c r="AN8" s="5" t="s">
-        <v>968</v>
+        <v>928</v>
       </c>
       <c r="AO8" s="5" t="s">
-        <v>983</v>
+        <v>943</v>
       </c>
       <c r="AP8" s="5" t="s">
         <v>27</v>
@@ -5075,58 +4829,58 @@
         <v>58</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>196</v>
+        <v>160</v>
       </c>
       <c r="T9" s="5" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="U9" s="5" t="s">
-        <v>262</v>
+        <v>222</v>
       </c>
       <c r="V9" s="5" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
       <c r="Y9" s="5" t="s">
-        <v>568</v>
+        <v>528</v>
       </c>
       <c r="Z9" s="5" t="s">
-        <v>585</v>
+        <v>545</v>
       </c>
       <c r="AE9" s="5" t="s">
-        <v>720</v>
+        <v>680</v>
       </c>
       <c r="AG9" s="5" t="s">
-        <v>743</v>
+        <v>703</v>
       </c>
       <c r="AH9" s="5" t="s">
-        <v>779</v>
+        <v>739</v>
       </c>
       <c r="AI9" s="5" t="s">
-        <v>795</v>
+        <v>755</v>
       </c>
       <c r="AJ9" s="5" t="s">
-        <v>808</v>
+        <v>768</v>
       </c>
       <c r="AK9" s="5" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="AL9" s="5" t="s">
-        <v>930</v>
+        <v>890</v>
       </c>
       <c r="AM9" s="5" t="s">
-        <v>939</v>
+        <v>899</v>
       </c>
       <c r="AN9" s="5" t="s">
-        <v>969</v>
+        <v>929</v>
       </c>
       <c r="AO9" s="5" t="s">
-        <v>984</v>
+        <v>944</v>
       </c>
       <c r="AP9" s="5" t="s">
         <v>39</v>
@@ -5134,58 +4888,58 @@
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.2">
       <c r="I10" s="5" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>197</v>
+        <v>161</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>273</v>
+        <v>233</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>569</v>
+        <v>529</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>586</v>
+        <v>546</v>
       </c>
       <c r="AE10" s="5" t="s">
-        <v>721</v>
+        <v>681</v>
       </c>
       <c r="AG10" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="AH10" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="AI10" s="5" t="s">
         <v>756</v>
       </c>
-      <c r="AH10" s="5" t="s">
-        <v>780</v>
-      </c>
-      <c r="AI10" s="5" t="s">
-        <v>796</v>
-      </c>
       <c r="AJ10" s="5" t="s">
-        <v>809</v>
+        <v>769</v>
       </c>
       <c r="AK10" s="5" t="s">
-        <v>227</v>
+        <v>187</v>
       </c>
       <c r="AL10" s="5" t="s">
-        <v>931</v>
+        <v>891</v>
       </c>
       <c r="AM10" s="5" t="s">
-        <v>940</v>
+        <v>900</v>
       </c>
       <c r="AN10" s="5" t="s">
-        <v>970</v>
+        <v>930</v>
       </c>
       <c r="AO10" s="5" t="s">
-        <v>985</v>
+        <v>945</v>
       </c>
       <c r="AP10" s="5" t="s">
         <v>30</v>
@@ -5193,52 +4947,52 @@
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.2">
       <c r="I11" s="5" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>199</v>
+        <v>163</v>
       </c>
       <c r="T11" s="5" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="U11" s="5" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="V11" s="5" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="Y11" s="5" t="s">
-        <v>570</v>
+        <v>530</v>
       </c>
       <c r="Z11" s="5" t="s">
-        <v>587</v>
+        <v>547</v>
       </c>
       <c r="AE11" s="5" t="s">
-        <v>722</v>
+        <v>682</v>
       </c>
       <c r="AG11" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="AH11" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="AI11" s="5" t="s">
         <v>757</v>
       </c>
-      <c r="AH11" s="5" t="s">
-        <v>781</v>
-      </c>
-      <c r="AI11" s="5" t="s">
-        <v>797</v>
-      </c>
       <c r="AJ11" s="5" t="s">
-        <v>810</v>
+        <v>770</v>
       </c>
       <c r="AM11" s="5" t="s">
-        <v>941</v>
+        <v>901</v>
       </c>
       <c r="AN11" s="5" t="s">
-        <v>971</v>
+        <v>931</v>
       </c>
       <c r="AO11" s="5" t="s">
-        <v>986</v>
+        <v>946</v>
       </c>
       <c r="AP11" s="5" t="s">
         <v>48</v>
@@ -5246,2301 +5000,2301 @@
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.2">
       <c r="N12" s="5" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="T12" s="5" t="s">
-        <v>249</v>
+        <v>209</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="Y12" s="5" t="s">
-        <v>571</v>
+        <v>531</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>588</v>
+        <v>548</v>
       </c>
       <c r="AE12" s="5" t="s">
-        <v>723</v>
+        <v>683</v>
       </c>
       <c r="AG12" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="AH12" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="AI12" s="5" t="s">
         <v>758</v>
       </c>
-      <c r="AH12" s="5" t="s">
-        <v>782</v>
-      </c>
-      <c r="AI12" s="5" t="s">
-        <v>798</v>
-      </c>
       <c r="AJ12" s="5" t="s">
-        <v>811</v>
+        <v>771</v>
       </c>
       <c r="AM12" s="5" t="s">
-        <v>942</v>
+        <v>902</v>
       </c>
       <c r="AN12" s="5" t="s">
-        <v>972</v>
+        <v>932</v>
       </c>
       <c r="AO12" s="5" t="s">
-        <v>987</v>
+        <v>947</v>
       </c>
       <c r="AP12" s="5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.2">
       <c r="N13" s="5" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="T13" s="5" t="s">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="V13" s="5" t="s">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>572</v>
+        <v>532</v>
       </c>
       <c r="Z13" s="5" t="s">
-        <v>589</v>
+        <v>549</v>
       </c>
       <c r="AE13" s="5" t="s">
-        <v>724</v>
+        <v>684</v>
       </c>
       <c r="AG13" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="AH13" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="AI13" s="5" t="s">
         <v>759</v>
       </c>
-      <c r="AH13" s="5" t="s">
-        <v>783</v>
-      </c>
-      <c r="AI13" s="5" t="s">
-        <v>799</v>
-      </c>
       <c r="AJ13" s="5" t="s">
-        <v>812</v>
+        <v>772</v>
       </c>
       <c r="AM13" s="5" t="s">
-        <v>943</v>
+        <v>903</v>
       </c>
       <c r="AN13" s="5" t="s">
-        <v>973</v>
+        <v>933</v>
       </c>
       <c r="AP13" s="5" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.2">
       <c r="N14" s="5" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="T14" s="5" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="Y14" s="5" t="s">
-        <v>573</v>
+        <v>533</v>
       </c>
       <c r="Z14" s="5" t="s">
-        <v>590</v>
+        <v>550</v>
       </c>
       <c r="AE14" s="5" t="s">
-        <v>725</v>
+        <v>685</v>
       </c>
       <c r="AG14" s="5" t="s">
+        <v>720</v>
+      </c>
+      <c r="AH14" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="AI14" s="5" t="s">
         <v>760</v>
       </c>
-      <c r="AH14" s="5" t="s">
-        <v>784</v>
-      </c>
-      <c r="AI14" s="5" t="s">
-        <v>800</v>
-      </c>
       <c r="AJ14" s="5" t="s">
-        <v>813</v>
+        <v>773</v>
       </c>
       <c r="AM14" s="5" t="s">
-        <v>944</v>
+        <v>904</v>
       </c>
       <c r="AN14" s="5" t="s">
-        <v>974</v>
+        <v>934</v>
       </c>
       <c r="AP14" s="5" t="s">
-        <v>992</v>
+        <v>952</v>
       </c>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.2">
       <c r="N15" s="5" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="T15" s="5" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>278</v>
+        <v>238</v>
       </c>
       <c r="Y15" s="5" t="s">
-        <v>574</v>
+        <v>534</v>
       </c>
       <c r="Z15" s="5" t="s">
-        <v>591</v>
+        <v>551</v>
       </c>
       <c r="AE15" s="5" t="s">
-        <v>726</v>
+        <v>686</v>
       </c>
       <c r="AG15" s="5" t="s">
-        <v>761</v>
+        <v>721</v>
       </c>
       <c r="AH15" s="5" t="s">
-        <v>785</v>
+        <v>745</v>
       </c>
       <c r="AJ15" s="5" t="s">
-        <v>814</v>
+        <v>774</v>
       </c>
       <c r="AM15" s="5" t="s">
-        <v>945</v>
+        <v>905</v>
       </c>
       <c r="AN15" s="5" t="s">
-        <v>975</v>
+        <v>935</v>
       </c>
       <c r="AP15" s="5" t="s">
-        <v>993</v>
+        <v>953</v>
       </c>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.2">
       <c r="N16" s="5" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="T16" s="5" t="s">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>279</v>
+        <v>239</v>
       </c>
       <c r="Y16" s="5" t="s">
-        <v>575</v>
+        <v>535</v>
       </c>
       <c r="Z16" s="5" t="s">
-        <v>592</v>
+        <v>552</v>
       </c>
       <c r="AE16" s="5" t="s">
-        <v>727</v>
+        <v>687</v>
       </c>
       <c r="AG16" s="5" t="s">
-        <v>762</v>
+        <v>722</v>
       </c>
       <c r="AH16" s="5" t="s">
-        <v>786</v>
+        <v>746</v>
       </c>
       <c r="AJ16" s="5" t="s">
-        <v>815</v>
+        <v>775</v>
       </c>
       <c r="AM16" s="5" t="s">
-        <v>946</v>
+        <v>906</v>
       </c>
       <c r="AN16" s="5" t="s">
-        <v>976</v>
+        <v>936</v>
       </c>
       <c r="AP16" s="5" t="s">
-        <v>994</v>
+        <v>954</v>
       </c>
     </row>
     <row r="17" spans="14:42" x14ac:dyDescent="0.2">
       <c r="N17" s="5" t="s">
-        <v>210</v>
+        <v>172</v>
       </c>
       <c r="V17" s="5" t="s">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="Y17" s="5" t="s">
-        <v>576</v>
+        <v>536</v>
       </c>
       <c r="Z17" s="5" t="s">
-        <v>593</v>
+        <v>553</v>
       </c>
       <c r="AE17" s="5" t="s">
-        <v>728</v>
+        <v>688</v>
       </c>
       <c r="AG17" s="5" t="s">
-        <v>763</v>
+        <v>723</v>
       </c>
       <c r="AJ17" s="5" t="s">
-        <v>816</v>
+        <v>776</v>
       </c>
       <c r="AM17" s="5" t="s">
-        <v>947</v>
+        <v>907</v>
       </c>
       <c r="AP17" s="5" t="s">
-        <v>995</v>
+        <v>955</v>
       </c>
     </row>
     <row r="18" spans="14:42" x14ac:dyDescent="0.2">
       <c r="V18" s="5" t="s">
-        <v>281</v>
+        <v>241</v>
       </c>
       <c r="Y18" s="5" t="s">
-        <v>577</v>
+        <v>537</v>
       </c>
       <c r="Z18" s="5" t="s">
-        <v>594</v>
+        <v>554</v>
       </c>
       <c r="AE18" s="5" t="s">
-        <v>729</v>
+        <v>689</v>
       </c>
       <c r="AG18" s="5" t="s">
-        <v>764</v>
+        <v>724</v>
       </c>
       <c r="AJ18" s="5" t="s">
-        <v>817</v>
+        <v>777</v>
       </c>
       <c r="AM18" s="5" t="s">
-        <v>948</v>
+        <v>908</v>
       </c>
       <c r="AP18" s="5" t="s">
-        <v>996</v>
+        <v>956</v>
       </c>
     </row>
     <row r="19" spans="14:42" x14ac:dyDescent="0.2">
       <c r="V19" s="5" t="s">
-        <v>282</v>
+        <v>242</v>
       </c>
       <c r="Y19" s="5" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="Z19" s="5" t="s">
-        <v>595</v>
+        <v>555</v>
       </c>
       <c r="AE19" s="5" t="s">
-        <v>730</v>
+        <v>690</v>
       </c>
       <c r="AG19" s="5" t="s">
-        <v>765</v>
+        <v>725</v>
       </c>
       <c r="AJ19" s="5" t="s">
-        <v>818</v>
+        <v>778</v>
       </c>
       <c r="AM19" s="5" t="s">
-        <v>949</v>
+        <v>909</v>
       </c>
       <c r="AP19" s="5" t="s">
-        <v>997</v>
+        <v>957</v>
       </c>
     </row>
     <row r="20" spans="14:42" x14ac:dyDescent="0.2">
       <c r="V20" s="5" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>596</v>
+        <v>556</v>
       </c>
       <c r="AE20" s="5" t="s">
-        <v>731</v>
+        <v>691</v>
       </c>
       <c r="AG20" s="5" t="s">
-        <v>766</v>
+        <v>726</v>
       </c>
       <c r="AJ20" s="5" t="s">
-        <v>819</v>
+        <v>779</v>
       </c>
       <c r="AM20" s="5" t="s">
-        <v>950</v>
+        <v>910</v>
       </c>
       <c r="AP20" s="5" t="s">
-        <v>998</v>
+        <v>958</v>
       </c>
     </row>
     <row r="21" spans="14:42" x14ac:dyDescent="0.2">
       <c r="V21" s="5" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="Z21" s="5" t="s">
-        <v>597</v>
+        <v>557</v>
       </c>
       <c r="AE21" s="5" t="s">
-        <v>732</v>
+        <v>692</v>
       </c>
       <c r="AG21" s="5" t="s">
-        <v>767</v>
+        <v>727</v>
       </c>
       <c r="AJ21" s="5" t="s">
-        <v>820</v>
+        <v>780</v>
       </c>
       <c r="AM21" s="5" t="s">
-        <v>951</v>
+        <v>911</v>
       </c>
       <c r="AP21" s="5" t="s">
-        <v>999</v>
+        <v>959</v>
       </c>
     </row>
     <row r="22" spans="14:42" x14ac:dyDescent="0.2">
       <c r="V22" s="5" t="s">
-        <v>285</v>
+        <v>245</v>
       </c>
       <c r="Z22" s="5" t="s">
-        <v>598</v>
+        <v>558</v>
       </c>
       <c r="AE22" s="5" t="s">
-        <v>733</v>
+        <v>693</v>
       </c>
       <c r="AG22" s="5" t="s">
-        <v>768</v>
+        <v>728</v>
       </c>
       <c r="AJ22" s="5" t="s">
-        <v>821</v>
+        <v>781</v>
       </c>
       <c r="AM22" s="5" t="s">
-        <v>952</v>
+        <v>912</v>
       </c>
     </row>
     <row r="23" spans="14:42" x14ac:dyDescent="0.2">
       <c r="V23" s="5" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="Z23" s="5" t="s">
-        <v>599</v>
+        <v>559</v>
       </c>
       <c r="AE23" s="5" t="s">
-        <v>734</v>
+        <v>694</v>
       </c>
       <c r="AG23" s="5" t="s">
-        <v>769</v>
+        <v>729</v>
       </c>
       <c r="AJ23" s="5" t="s">
-        <v>822</v>
+        <v>782</v>
       </c>
       <c r="AM23" s="5" t="s">
-        <v>953</v>
+        <v>913</v>
       </c>
     </row>
     <row r="24" spans="14:42" x14ac:dyDescent="0.2">
       <c r="V24" s="5" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="Z24" s="5" t="s">
-        <v>600</v>
+        <v>560</v>
       </c>
       <c r="AE24" s="5" t="s">
-        <v>735</v>
+        <v>695</v>
       </c>
       <c r="AG24" s="5" t="s">
-        <v>770</v>
+        <v>730</v>
       </c>
       <c r="AJ24" s="5" t="s">
-        <v>823</v>
+        <v>783</v>
       </c>
       <c r="AM24" s="5" t="s">
-        <v>954</v>
+        <v>914</v>
       </c>
     </row>
     <row r="25" spans="14:42" x14ac:dyDescent="0.2">
       <c r="V25" s="5" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="Z25" s="5" t="s">
-        <v>601</v>
+        <v>561</v>
       </c>
       <c r="AE25" s="5" t="s">
-        <v>736</v>
+        <v>696</v>
       </c>
       <c r="AG25" s="5" t="s">
-        <v>771</v>
+        <v>731</v>
       </c>
       <c r="AJ25" s="5" t="s">
-        <v>824</v>
+        <v>784</v>
       </c>
       <c r="AM25" s="5" t="s">
-        <v>955</v>
+        <v>915</v>
       </c>
     </row>
     <row r="26" spans="14:42" x14ac:dyDescent="0.2">
       <c r="V26" s="5" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>602</v>
+        <v>562</v>
       </c>
       <c r="AE26" s="5" t="s">
-        <v>737</v>
+        <v>697</v>
       </c>
       <c r="AJ26" s="5" t="s">
-        <v>825</v>
+        <v>785</v>
       </c>
       <c r="AM26" s="5" t="s">
-        <v>956</v>
+        <v>916</v>
       </c>
     </row>
     <row r="27" spans="14:42" x14ac:dyDescent="0.2">
       <c r="V27" s="5" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="Z27" s="5" t="s">
-        <v>603</v>
+        <v>563</v>
       </c>
       <c r="AE27" s="5" t="s">
-        <v>738</v>
+        <v>698</v>
       </c>
       <c r="AJ27" s="5" t="s">
-        <v>826</v>
+        <v>786</v>
       </c>
       <c r="AM27" s="5" t="s">
-        <v>957</v>
+        <v>917</v>
       </c>
     </row>
     <row r="28" spans="14:42" x14ac:dyDescent="0.2">
       <c r="V28" s="5" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
       <c r="Z28" s="5" t="s">
-        <v>604</v>
+        <v>564</v>
       </c>
       <c r="AE28" s="5" t="s">
-        <v>739</v>
+        <v>699</v>
       </c>
       <c r="AJ28" s="5" t="s">
-        <v>827</v>
+        <v>787</v>
       </c>
       <c r="AM28" s="5" t="s">
-        <v>958</v>
+        <v>918</v>
       </c>
     </row>
     <row r="29" spans="14:42" x14ac:dyDescent="0.2">
       <c r="V29" s="5" t="s">
-        <v>292</v>
+        <v>252</v>
       </c>
       <c r="Z29" s="5" t="s">
-        <v>605</v>
+        <v>565</v>
       </c>
       <c r="AJ29" s="5" t="s">
-        <v>828</v>
+        <v>788</v>
       </c>
       <c r="AM29" s="5" t="s">
-        <v>959</v>
+        <v>919</v>
       </c>
     </row>
     <row r="30" spans="14:42" x14ac:dyDescent="0.2">
       <c r="V30" s="5" t="s">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="Z30" s="5" t="s">
-        <v>606</v>
+        <v>566</v>
       </c>
       <c r="AJ30" s="5" t="s">
-        <v>829</v>
+        <v>789</v>
       </c>
       <c r="AM30" s="5" t="s">
-        <v>960</v>
+        <v>920</v>
       </c>
     </row>
     <row r="31" spans="14:42" x14ac:dyDescent="0.2">
       <c r="V31" s="5" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="Z31" s="5" t="s">
-        <v>607</v>
+        <v>567</v>
       </c>
       <c r="AJ31" s="5" t="s">
-        <v>830</v>
+        <v>790</v>
       </c>
     </row>
     <row r="32" spans="14:42" x14ac:dyDescent="0.2">
       <c r="V32" s="5" t="s">
-        <v>295</v>
+        <v>255</v>
       </c>
       <c r="Z32" s="5" t="s">
-        <v>608</v>
+        <v>568</v>
       </c>
       <c r="AJ32" s="5" t="s">
-        <v>831</v>
+        <v>791</v>
       </c>
     </row>
     <row r="33" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V33" s="5" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
       <c r="Z33" s="5" t="s">
-        <v>609</v>
+        <v>569</v>
       </c>
       <c r="AJ33" s="5" t="s">
-        <v>832</v>
+        <v>792</v>
       </c>
     </row>
     <row r="34" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V34" s="5" t="s">
-        <v>297</v>
+        <v>257</v>
       </c>
       <c r="Z34" s="5" t="s">
-        <v>610</v>
+        <v>570</v>
       </c>
       <c r="AJ34" s="5" t="s">
-        <v>833</v>
+        <v>793</v>
       </c>
     </row>
     <row r="35" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V35" s="5" t="s">
-        <v>298</v>
+        <v>258</v>
       </c>
       <c r="Z35" s="5" t="s">
-        <v>611</v>
+        <v>571</v>
       </c>
       <c r="AJ35" s="5" t="s">
-        <v>834</v>
+        <v>794</v>
       </c>
     </row>
     <row r="36" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V36" s="5" t="s">
-        <v>299</v>
+        <v>259</v>
       </c>
       <c r="Z36" s="5" t="s">
-        <v>612</v>
+        <v>572</v>
       </c>
       <c r="AJ36" s="5" t="s">
-        <v>835</v>
+        <v>795</v>
       </c>
     </row>
     <row r="37" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V37" s="5" t="s">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="Z37" s="5" t="s">
-        <v>613</v>
+        <v>573</v>
       </c>
       <c r="AJ37" s="5" t="s">
-        <v>836</v>
+        <v>796</v>
       </c>
     </row>
     <row r="38" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V38" s="5" t="s">
-        <v>301</v>
+        <v>261</v>
       </c>
       <c r="Z38" s="5" t="s">
-        <v>614</v>
+        <v>574</v>
       </c>
       <c r="AJ38" s="5" t="s">
-        <v>837</v>
+        <v>797</v>
       </c>
     </row>
     <row r="39" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V39" s="5" t="s">
-        <v>302</v>
+        <v>262</v>
       </c>
       <c r="Z39" s="5" t="s">
-        <v>615</v>
+        <v>575</v>
       </c>
       <c r="AJ39" s="5" t="s">
-        <v>838</v>
+        <v>798</v>
       </c>
     </row>
     <row r="40" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V40" s="5" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="Z40" s="5" t="s">
-        <v>616</v>
+        <v>576</v>
       </c>
       <c r="AJ40" s="5" t="s">
-        <v>839</v>
+        <v>799</v>
       </c>
     </row>
     <row r="41" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V41" s="5" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="Z41" s="5" t="s">
-        <v>617</v>
+        <v>577</v>
       </c>
       <c r="AJ41" s="5" t="s">
-        <v>840</v>
+        <v>800</v>
       </c>
     </row>
     <row r="42" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V42" s="5" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="Z42" s="5" t="s">
-        <v>618</v>
+        <v>578</v>
       </c>
       <c r="AJ42" s="5" t="s">
-        <v>841</v>
+        <v>801</v>
       </c>
     </row>
     <row r="43" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V43" s="5" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="Z43" s="5" t="s">
-        <v>619</v>
+        <v>579</v>
       </c>
       <c r="AJ43" s="5" t="s">
-        <v>842</v>
+        <v>802</v>
       </c>
     </row>
     <row r="44" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V44" s="5" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
       <c r="Z44" s="5" t="s">
-        <v>620</v>
+        <v>580</v>
       </c>
       <c r="AJ44" s="5" t="s">
-        <v>843</v>
+        <v>803</v>
       </c>
     </row>
     <row r="45" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V45" s="5" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
       <c r="Z45" s="5" t="s">
-        <v>621</v>
+        <v>581</v>
       </c>
       <c r="AJ45" s="5" t="s">
-        <v>844</v>
+        <v>804</v>
       </c>
     </row>
     <row r="46" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V46" s="5" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
       <c r="Z46" s="5" t="s">
-        <v>622</v>
+        <v>582</v>
       </c>
       <c r="AJ46" s="5" t="s">
-        <v>845</v>
+        <v>805</v>
       </c>
     </row>
     <row r="47" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V47" s="5" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="Z47" s="5" t="s">
-        <v>623</v>
+        <v>583</v>
       </c>
       <c r="AJ47" s="5" t="s">
-        <v>846</v>
+        <v>806</v>
       </c>
     </row>
     <row r="48" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V48" s="5" t="s">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="Z48" s="5" t="s">
-        <v>624</v>
+        <v>584</v>
       </c>
       <c r="AJ48" s="5" t="s">
-        <v>847</v>
+        <v>807</v>
       </c>
     </row>
     <row r="49" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V49" s="5" t="s">
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="Z49" s="5" t="s">
-        <v>625</v>
+        <v>585</v>
       </c>
       <c r="AJ49" s="5" t="s">
-        <v>848</v>
+        <v>808</v>
       </c>
     </row>
     <row r="50" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V50" s="5" t="s">
-        <v>313</v>
+        <v>273</v>
       </c>
       <c r="Z50" s="5" t="s">
-        <v>626</v>
+        <v>586</v>
       </c>
       <c r="AJ50" s="5" t="s">
-        <v>849</v>
+        <v>809</v>
       </c>
     </row>
     <row r="51" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V51" s="5" t="s">
-        <v>314</v>
+        <v>274</v>
       </c>
       <c r="Z51" s="5" t="s">
-        <v>627</v>
+        <v>587</v>
       </c>
       <c r="AJ51" s="5" t="s">
-        <v>850</v>
+        <v>810</v>
       </c>
     </row>
     <row r="52" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V52" s="5" t="s">
-        <v>315</v>
+        <v>275</v>
       </c>
       <c r="Z52" s="5" t="s">
-        <v>628</v>
+        <v>588</v>
       </c>
       <c r="AJ52" s="5" t="s">
-        <v>851</v>
+        <v>811</v>
       </c>
     </row>
     <row r="53" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V53" s="5" t="s">
-        <v>316</v>
+        <v>276</v>
       </c>
       <c r="Z53" s="5" t="s">
-        <v>629</v>
+        <v>589</v>
       </c>
       <c r="AJ53" s="5" t="s">
-        <v>852</v>
+        <v>812</v>
       </c>
     </row>
     <row r="54" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V54" s="5" t="s">
-        <v>317</v>
+        <v>277</v>
       </c>
       <c r="Z54" s="5" t="s">
-        <v>630</v>
+        <v>590</v>
       </c>
       <c r="AJ54" s="5" t="s">
-        <v>853</v>
+        <v>813</v>
       </c>
     </row>
     <row r="55" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V55" s="5" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="Z55" s="5" t="s">
-        <v>631</v>
+        <v>591</v>
       </c>
       <c r="AJ55" s="5" t="s">
-        <v>854</v>
+        <v>814</v>
       </c>
     </row>
     <row r="56" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V56" s="5" t="s">
-        <v>319</v>
+        <v>279</v>
       </c>
       <c r="Z56" s="5" t="s">
-        <v>632</v>
+        <v>592</v>
       </c>
       <c r="AJ56" s="5" t="s">
-        <v>855</v>
+        <v>815</v>
       </c>
     </row>
     <row r="57" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V57" s="5" t="s">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="Z57" s="5" t="s">
-        <v>633</v>
+        <v>593</v>
       </c>
       <c r="AJ57" s="5" t="s">
-        <v>856</v>
+        <v>816</v>
       </c>
     </row>
     <row r="58" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V58" s="5" t="s">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="Z58" s="5" t="s">
-        <v>634</v>
+        <v>594</v>
       </c>
       <c r="AJ58" s="5" t="s">
-        <v>857</v>
+        <v>817</v>
       </c>
     </row>
     <row r="59" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V59" s="5" t="s">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="Z59" s="5" t="s">
-        <v>635</v>
+        <v>595</v>
       </c>
       <c r="AJ59" s="5" t="s">
-        <v>858</v>
+        <v>818</v>
       </c>
     </row>
     <row r="60" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V60" s="5" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="Z60" s="5" t="s">
-        <v>636</v>
+        <v>596</v>
       </c>
       <c r="AJ60" s="5" t="s">
-        <v>859</v>
+        <v>819</v>
       </c>
     </row>
     <row r="61" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V61" s="5" t="s">
-        <v>324</v>
+        <v>284</v>
       </c>
       <c r="Z61" s="5" t="s">
-        <v>637</v>
+        <v>597</v>
       </c>
       <c r="AJ61" s="5" t="s">
-        <v>860</v>
+        <v>820</v>
       </c>
     </row>
     <row r="62" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V62" s="5" t="s">
-        <v>325</v>
+        <v>285</v>
       </c>
       <c r="Z62" s="5" t="s">
-        <v>638</v>
+        <v>598</v>
       </c>
       <c r="AJ62" s="5" t="s">
-        <v>861</v>
+        <v>821</v>
       </c>
     </row>
     <row r="63" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V63" s="5" t="s">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="Z63" s="5" t="s">
-        <v>639</v>
+        <v>599</v>
       </c>
       <c r="AJ63" s="5" t="s">
-        <v>862</v>
+        <v>822</v>
       </c>
     </row>
     <row r="64" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V64" s="5" t="s">
-        <v>327</v>
+        <v>287</v>
       </c>
       <c r="Z64" s="5" t="s">
-        <v>640</v>
+        <v>600</v>
       </c>
       <c r="AJ64" s="5" t="s">
-        <v>863</v>
+        <v>823</v>
       </c>
     </row>
     <row r="65" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V65" s="5" t="s">
-        <v>328</v>
+        <v>288</v>
       </c>
       <c r="Z65" s="5" t="s">
-        <v>641</v>
+        <v>601</v>
       </c>
       <c r="AJ65" s="5" t="s">
-        <v>864</v>
+        <v>824</v>
       </c>
     </row>
     <row r="66" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V66" s="5" t="s">
-        <v>329</v>
+        <v>289</v>
       </c>
       <c r="Z66" s="5" t="s">
-        <v>642</v>
+        <v>602</v>
       </c>
       <c r="AJ66" s="5" t="s">
-        <v>865</v>
+        <v>825</v>
       </c>
     </row>
     <row r="67" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V67" s="5" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="Z67" s="5" t="s">
-        <v>643</v>
+        <v>603</v>
       </c>
       <c r="AJ67" s="5" t="s">
-        <v>866</v>
+        <v>826</v>
       </c>
     </row>
     <row r="68" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V68" s="5" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="Z68" s="5" t="s">
-        <v>644</v>
+        <v>604</v>
       </c>
       <c r="AJ68" s="5" t="s">
-        <v>867</v>
+        <v>827</v>
       </c>
     </row>
     <row r="69" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V69" s="5" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="Z69" s="5" t="s">
-        <v>645</v>
+        <v>605</v>
       </c>
       <c r="AJ69" s="5" t="s">
-        <v>868</v>
+        <v>828</v>
       </c>
     </row>
     <row r="70" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V70" s="5" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="Z70" s="5" t="s">
-        <v>646</v>
+        <v>606</v>
       </c>
       <c r="AJ70" s="5" t="s">
-        <v>869</v>
+        <v>829</v>
       </c>
     </row>
     <row r="71" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V71" s="5" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="Z71" s="5" t="s">
-        <v>647</v>
+        <v>607</v>
       </c>
       <c r="AJ71" s="5" t="s">
-        <v>870</v>
+        <v>830</v>
       </c>
     </row>
     <row r="72" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V72" s="5" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="Z72" s="5" t="s">
-        <v>648</v>
+        <v>608</v>
       </c>
       <c r="AJ72" s="5" t="s">
-        <v>871</v>
+        <v>831</v>
       </c>
     </row>
     <row r="73" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V73" s="5" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="Z73" s="5" t="s">
-        <v>649</v>
+        <v>609</v>
       </c>
       <c r="AJ73" s="5" t="s">
-        <v>872</v>
+        <v>832</v>
       </c>
     </row>
     <row r="74" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V74" s="5" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="Z74" s="5" t="s">
-        <v>650</v>
+        <v>610</v>
       </c>
       <c r="AJ74" s="5" t="s">
-        <v>873</v>
+        <v>833</v>
       </c>
     </row>
     <row r="75" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V75" s="5" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="Z75" s="5" t="s">
-        <v>651</v>
+        <v>611</v>
       </c>
       <c r="AJ75" s="5" t="s">
-        <v>874</v>
+        <v>834</v>
       </c>
     </row>
     <row r="76" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V76" s="5" t="s">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="Z76" s="5" t="s">
-        <v>652</v>
+        <v>612</v>
       </c>
       <c r="AJ76" s="5" t="s">
-        <v>875</v>
+        <v>835</v>
       </c>
     </row>
     <row r="77" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V77" s="5" t="s">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="Z77" s="5" t="s">
-        <v>653</v>
+        <v>613</v>
       </c>
       <c r="AJ77" s="5" t="s">
-        <v>876</v>
+        <v>836</v>
       </c>
     </row>
     <row r="78" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V78" s="5" t="s">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="Z78" s="5" t="s">
-        <v>654</v>
+        <v>614</v>
       </c>
       <c r="AJ78" s="5" t="s">
-        <v>877</v>
+        <v>837</v>
       </c>
     </row>
     <row r="79" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V79" s="5" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="Z79" s="5" t="s">
-        <v>655</v>
+        <v>615</v>
       </c>
       <c r="AJ79" s="5" t="s">
-        <v>878</v>
+        <v>838</v>
       </c>
     </row>
     <row r="80" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V80" s="5" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="Z80" s="5" t="s">
-        <v>656</v>
+        <v>616</v>
       </c>
       <c r="AJ80" s="5" t="s">
-        <v>879</v>
+        <v>839</v>
       </c>
     </row>
     <row r="81" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V81" s="5" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="Z81" s="5" t="s">
-        <v>657</v>
+        <v>617</v>
       </c>
       <c r="AJ81" s="5" t="s">
-        <v>880</v>
+        <v>840</v>
       </c>
     </row>
     <row r="82" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V82" s="5" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="Z82" s="5" t="s">
-        <v>658</v>
+        <v>618</v>
       </c>
       <c r="AJ82" s="5" t="s">
-        <v>881</v>
+        <v>841</v>
       </c>
     </row>
     <row r="83" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V83" s="5" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="Z83" s="5" t="s">
-        <v>659</v>
+        <v>619</v>
       </c>
       <c r="AJ83" s="5" t="s">
-        <v>882</v>
+        <v>842</v>
       </c>
     </row>
     <row r="84" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V84" s="5" t="s">
-        <v>347</v>
+        <v>307</v>
       </c>
       <c r="Z84" s="5" t="s">
-        <v>660</v>
+        <v>620</v>
       </c>
       <c r="AJ84" s="5" t="s">
-        <v>883</v>
+        <v>843</v>
       </c>
     </row>
     <row r="85" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V85" s="5" t="s">
-        <v>348</v>
+        <v>308</v>
       </c>
       <c r="Z85" s="5" t="s">
-        <v>661</v>
+        <v>621</v>
       </c>
       <c r="AJ85" s="5" t="s">
-        <v>884</v>
+        <v>844</v>
       </c>
     </row>
     <row r="86" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V86" s="5" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="Z86" s="5" t="s">
-        <v>662</v>
+        <v>622</v>
       </c>
       <c r="AJ86" s="5" t="s">
-        <v>885</v>
+        <v>845</v>
       </c>
     </row>
     <row r="87" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V87" s="5" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="Z87" s="5" t="s">
-        <v>663</v>
+        <v>623</v>
       </c>
       <c r="AJ87" s="5" t="s">
-        <v>886</v>
+        <v>846</v>
       </c>
     </row>
     <row r="88" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V88" s="5" t="s">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="Z88" s="5" t="s">
-        <v>664</v>
+        <v>624</v>
       </c>
       <c r="AJ88" s="5" t="s">
-        <v>887</v>
+        <v>847</v>
       </c>
     </row>
     <row r="89" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V89" s="5" t="s">
-        <v>352</v>
+        <v>312</v>
       </c>
       <c r="Z89" s="5" t="s">
-        <v>665</v>
+        <v>625</v>
       </c>
       <c r="AJ89" s="5" t="s">
-        <v>888</v>
+        <v>848</v>
       </c>
     </row>
     <row r="90" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V90" s="5" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="Z90" s="5" t="s">
-        <v>666</v>
+        <v>626</v>
       </c>
       <c r="AJ90" s="5" t="s">
-        <v>889</v>
+        <v>849</v>
       </c>
     </row>
     <row r="91" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V91" s="5" t="s">
-        <v>354</v>
+        <v>314</v>
       </c>
       <c r="Z91" s="5" t="s">
-        <v>667</v>
+        <v>627</v>
       </c>
       <c r="AJ91" s="5" t="s">
-        <v>890</v>
+        <v>850</v>
       </c>
     </row>
     <row r="92" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V92" s="5" t="s">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="Z92" s="5" t="s">
-        <v>668</v>
+        <v>628</v>
       </c>
       <c r="AJ92" s="5" t="s">
-        <v>891</v>
+        <v>851</v>
       </c>
     </row>
     <row r="93" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V93" s="5" t="s">
-        <v>356</v>
+        <v>316</v>
       </c>
       <c r="Z93" s="5" t="s">
-        <v>669</v>
+        <v>629</v>
       </c>
       <c r="AJ93" s="5" t="s">
-        <v>892</v>
+        <v>852</v>
       </c>
     </row>
     <row r="94" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V94" s="5" t="s">
-        <v>357</v>
+        <v>317</v>
       </c>
       <c r="Z94" s="5" t="s">
-        <v>670</v>
+        <v>630</v>
       </c>
       <c r="AJ94" s="5" t="s">
-        <v>893</v>
+        <v>853</v>
       </c>
     </row>
     <row r="95" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V95" s="5" t="s">
-        <v>358</v>
+        <v>318</v>
       </c>
       <c r="Z95" s="5" t="s">
-        <v>671</v>
+        <v>631</v>
       </c>
       <c r="AJ95" s="5" t="s">
-        <v>894</v>
+        <v>854</v>
       </c>
     </row>
     <row r="96" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V96" s="5" t="s">
-        <v>359</v>
+        <v>319</v>
       </c>
       <c r="Z96" s="5" t="s">
-        <v>672</v>
+        <v>632</v>
       </c>
       <c r="AJ96" s="5" t="s">
-        <v>895</v>
+        <v>855</v>
       </c>
     </row>
     <row r="97" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V97" s="5" t="s">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="Z97" s="5" t="s">
-        <v>673</v>
+        <v>633</v>
       </c>
       <c r="AJ97" s="5" t="s">
-        <v>896</v>
+        <v>856</v>
       </c>
     </row>
     <row r="98" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V98" s="5" t="s">
-        <v>361</v>
+        <v>321</v>
       </c>
       <c r="Z98" s="5" t="s">
-        <v>674</v>
+        <v>634</v>
       </c>
       <c r="AJ98" s="5" t="s">
-        <v>897</v>
+        <v>857</v>
       </c>
     </row>
     <row r="99" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V99" s="5" t="s">
-        <v>362</v>
+        <v>322</v>
       </c>
       <c r="Z99" s="5" t="s">
-        <v>675</v>
+        <v>635</v>
       </c>
       <c r="AJ99" s="5" t="s">
-        <v>898</v>
+        <v>858</v>
       </c>
     </row>
     <row r="100" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V100" s="5" t="s">
-        <v>363</v>
+        <v>323</v>
       </c>
       <c r="Z100" s="5" t="s">
-        <v>676</v>
+        <v>636</v>
       </c>
       <c r="AJ100" s="5" t="s">
-        <v>899</v>
+        <v>859</v>
       </c>
     </row>
     <row r="101" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V101" s="5" t="s">
-        <v>364</v>
+        <v>324</v>
       </c>
       <c r="Z101" s="5" t="s">
-        <v>677</v>
+        <v>637</v>
       </c>
       <c r="AJ101" s="5" t="s">
-        <v>900</v>
+        <v>860</v>
       </c>
     </row>
     <row r="102" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V102" s="5" t="s">
-        <v>365</v>
+        <v>325</v>
       </c>
       <c r="Z102" s="5" t="s">
-        <v>678</v>
+        <v>638</v>
       </c>
       <c r="AJ102" s="5" t="s">
-        <v>901</v>
+        <v>861</v>
       </c>
     </row>
     <row r="103" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V103" s="5" t="s">
-        <v>366</v>
+        <v>326</v>
       </c>
       <c r="Z103" s="5" t="s">
-        <v>679</v>
+        <v>639</v>
       </c>
       <c r="AJ103" s="5" t="s">
-        <v>902</v>
+        <v>862</v>
       </c>
     </row>
     <row r="104" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V104" s="5" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="Z104" s="5" t="s">
-        <v>680</v>
+        <v>640</v>
       </c>
       <c r="AJ104" s="5" t="s">
-        <v>901</v>
+        <v>861</v>
       </c>
     </row>
     <row r="105" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V105" s="5" t="s">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="Z105" s="5" t="s">
-        <v>681</v>
+        <v>641</v>
       </c>
       <c r="AJ105" s="5" t="s">
-        <v>903</v>
+        <v>863</v>
       </c>
     </row>
     <row r="106" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V106" s="5" t="s">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="Z106" s="5" t="s">
-        <v>682</v>
+        <v>642</v>
       </c>
       <c r="AJ106" s="5" t="s">
-        <v>904</v>
+        <v>864</v>
       </c>
     </row>
     <row r="107" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V107" s="5" t="s">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="Z107" s="5" t="s">
-        <v>683</v>
+        <v>643</v>
       </c>
       <c r="AJ107" s="5" t="s">
-        <v>905</v>
+        <v>865</v>
       </c>
     </row>
     <row r="108" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V108" s="5" t="s">
-        <v>371</v>
+        <v>331</v>
       </c>
       <c r="Z108" s="5" t="s">
-        <v>684</v>
+        <v>644</v>
       </c>
       <c r="AJ108" s="5" t="s">
-        <v>906</v>
+        <v>866</v>
       </c>
     </row>
     <row r="109" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V109" s="5" t="s">
-        <v>372</v>
+        <v>332</v>
       </c>
       <c r="Z109" s="5" t="s">
-        <v>685</v>
+        <v>645</v>
       </c>
       <c r="AJ109" s="5" t="s">
-        <v>907</v>
+        <v>867</v>
       </c>
     </row>
     <row r="110" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V110" s="5" t="s">
-        <v>373</v>
+        <v>333</v>
       </c>
       <c r="Z110" s="5" t="s">
-        <v>686</v>
+        <v>646</v>
       </c>
       <c r="AJ110" s="5" t="s">
-        <v>908</v>
+        <v>868</v>
       </c>
     </row>
     <row r="111" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V111" s="5" t="s">
-        <v>374</v>
+        <v>334</v>
       </c>
       <c r="Z111" s="5" t="s">
-        <v>687</v>
+        <v>647</v>
       </c>
       <c r="AJ111" s="5" t="s">
-        <v>909</v>
+        <v>869</v>
       </c>
     </row>
     <row r="112" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V112" s="5" t="s">
-        <v>375</v>
+        <v>335</v>
       </c>
       <c r="Z112" s="5" t="s">
-        <v>688</v>
+        <v>648</v>
       </c>
       <c r="AJ112" s="5" t="s">
-        <v>910</v>
+        <v>870</v>
       </c>
     </row>
     <row r="113" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V113" s="5" t="s">
-        <v>376</v>
+        <v>336</v>
       </c>
       <c r="Z113" s="5" t="s">
-        <v>689</v>
+        <v>649</v>
       </c>
       <c r="AJ113" s="5" t="s">
-        <v>911</v>
+        <v>871</v>
       </c>
     </row>
     <row r="114" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V114" s="5" t="s">
-        <v>377</v>
+        <v>337</v>
       </c>
       <c r="Z114" s="5" t="s">
-        <v>690</v>
+        <v>650</v>
       </c>
       <c r="AJ114" s="5" t="s">
-        <v>912</v>
+        <v>872</v>
       </c>
     </row>
     <row r="115" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V115" s="5" t="s">
-        <v>378</v>
+        <v>338</v>
       </c>
       <c r="Z115" s="5" t="s">
-        <v>691</v>
+        <v>651</v>
       </c>
       <c r="AJ115" s="5" t="s">
-        <v>913</v>
+        <v>873</v>
       </c>
     </row>
     <row r="116" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V116" s="5" t="s">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="Z116" s="5" t="s">
-        <v>692</v>
+        <v>652</v>
       </c>
       <c r="AJ116" s="5" t="s">
-        <v>914</v>
+        <v>874</v>
       </c>
     </row>
     <row r="117" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V117" s="5" t="s">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="Z117" s="5" t="s">
-        <v>693</v>
+        <v>653</v>
       </c>
       <c r="AJ117" s="5" t="s">
-        <v>915</v>
+        <v>875</v>
       </c>
     </row>
     <row r="118" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V118" s="5" t="s">
-        <v>381</v>
+        <v>341</v>
       </c>
       <c r="Z118" s="5" t="s">
-        <v>694</v>
+        <v>654</v>
       </c>
       <c r="AJ118" s="5" t="s">
-        <v>916</v>
+        <v>876</v>
       </c>
     </row>
     <row r="119" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V119" s="5" t="s">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="AJ119" s="5" t="s">
-        <v>917</v>
+        <v>877</v>
       </c>
     </row>
     <row r="120" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V120" s="5" t="s">
-        <v>383</v>
+        <v>343</v>
       </c>
       <c r="AJ120" s="5" t="s">
-        <v>918</v>
+        <v>878</v>
       </c>
     </row>
     <row r="121" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V121" s="5" t="s">
-        <v>384</v>
+        <v>344</v>
       </c>
       <c r="AJ121" s="5" t="s">
-        <v>531</v>
+        <v>491</v>
       </c>
     </row>
     <row r="122" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V122" s="5" t="s">
-        <v>385</v>
+        <v>345</v>
       </c>
       <c r="AJ122" s="5" t="s">
-        <v>919</v>
+        <v>879</v>
       </c>
     </row>
     <row r="123" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V123" s="5" t="s">
-        <v>386</v>
+        <v>346</v>
       </c>
       <c r="AJ123" s="5" t="s">
-        <v>920</v>
+        <v>880</v>
       </c>
     </row>
     <row r="124" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V124" s="5" t="s">
-        <v>387</v>
+        <v>347</v>
       </c>
       <c r="AJ124" s="5" t="s">
-        <v>921</v>
+        <v>881</v>
       </c>
     </row>
     <row r="125" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V125" s="5" t="s">
-        <v>388</v>
+        <v>348</v>
       </c>
     </row>
     <row r="126" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V126" s="5" t="s">
-        <v>389</v>
+        <v>349</v>
       </c>
     </row>
     <row r="127" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V127" s="5" t="s">
-        <v>390</v>
+        <v>350</v>
       </c>
     </row>
     <row r="128" spans="22:36" x14ac:dyDescent="0.2">
       <c r="V128" s="5" t="s">
-        <v>391</v>
+        <v>351</v>
       </c>
     </row>
     <row r="129" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V129" s="5" t="s">
-        <v>392</v>
+        <v>352</v>
       </c>
     </row>
     <row r="130" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V130" s="5" t="s">
-        <v>393</v>
+        <v>353</v>
       </c>
     </row>
     <row r="131" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V131" s="5" t="s">
-        <v>394</v>
+        <v>354</v>
       </c>
     </row>
     <row r="132" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V132" s="5" t="s">
-        <v>395</v>
+        <v>355</v>
       </c>
     </row>
     <row r="133" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V133" s="5" t="s">
-        <v>396</v>
+        <v>356</v>
       </c>
     </row>
     <row r="134" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V134" s="5" t="s">
-        <v>397</v>
+        <v>357</v>
       </c>
     </row>
     <row r="135" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V135" s="5" t="s">
-        <v>398</v>
+        <v>358</v>
       </c>
     </row>
     <row r="136" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V136" s="5" t="s">
-        <v>399</v>
+        <v>359</v>
       </c>
     </row>
     <row r="137" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V137" s="5" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
     </row>
     <row r="138" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V138" s="5" t="s">
-        <v>401</v>
+        <v>361</v>
       </c>
     </row>
     <row r="139" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V139" s="5" t="s">
-        <v>402</v>
+        <v>362</v>
       </c>
     </row>
     <row r="140" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V140" s="5" t="s">
-        <v>403</v>
+        <v>363</v>
       </c>
     </row>
     <row r="141" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V141" s="5" t="s">
-        <v>404</v>
+        <v>364</v>
       </c>
     </row>
     <row r="142" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V142" s="5" t="s">
-        <v>405</v>
+        <v>365</v>
       </c>
     </row>
     <row r="143" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V143" s="5" t="s">
-        <v>406</v>
+        <v>366</v>
       </c>
     </row>
     <row r="144" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V144" s="5" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
     </row>
     <row r="145" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V145" s="5" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
     </row>
     <row r="146" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V146" s="5" t="s">
-        <v>409</v>
+        <v>369</v>
       </c>
     </row>
     <row r="147" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V147" s="5" t="s">
-        <v>410</v>
+        <v>370</v>
       </c>
     </row>
     <row r="148" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V148" s="5" t="s">
-        <v>411</v>
+        <v>371</v>
       </c>
     </row>
     <row r="149" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V149" s="5" t="s">
-        <v>412</v>
+        <v>372</v>
       </c>
     </row>
     <row r="150" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V150" s="5" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
     </row>
     <row r="151" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V151" s="5" t="s">
-        <v>414</v>
+        <v>374</v>
       </c>
     </row>
     <row r="152" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V152" s="5" t="s">
-        <v>415</v>
+        <v>375</v>
       </c>
     </row>
     <row r="153" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V153" s="5" t="s">
-        <v>416</v>
+        <v>376</v>
       </c>
     </row>
     <row r="154" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V154" s="5" t="s">
-        <v>417</v>
+        <v>377</v>
       </c>
     </row>
     <row r="155" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V155" s="5" t="s">
-        <v>418</v>
+        <v>378</v>
       </c>
     </row>
     <row r="156" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V156" s="5" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
     </row>
     <row r="157" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V157" s="5" t="s">
-        <v>420</v>
+        <v>380</v>
       </c>
     </row>
     <row r="158" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V158" s="5" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
     </row>
     <row r="159" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V159" s="5" t="s">
-        <v>422</v>
+        <v>382</v>
       </c>
     </row>
     <row r="160" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V160" s="5" t="s">
-        <v>423</v>
+        <v>383</v>
       </c>
     </row>
     <row r="161" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V161" s="5" t="s">
-        <v>424</v>
+        <v>384</v>
       </c>
     </row>
     <row r="162" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V162" s="5" t="s">
-        <v>425</v>
+        <v>385</v>
       </c>
     </row>
     <row r="163" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V163" s="5" t="s">
-        <v>426</v>
+        <v>386</v>
       </c>
     </row>
     <row r="164" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V164" s="5" t="s">
-        <v>427</v>
+        <v>387</v>
       </c>
     </row>
     <row r="165" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V165" s="5" t="s">
-        <v>428</v>
+        <v>388</v>
       </c>
     </row>
     <row r="166" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V166" s="5" t="s">
-        <v>429</v>
+        <v>389</v>
       </c>
     </row>
     <row r="167" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V167" s="5" t="s">
-        <v>430</v>
+        <v>390</v>
       </c>
     </row>
     <row r="168" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V168" s="5" t="s">
-        <v>431</v>
+        <v>391</v>
       </c>
     </row>
     <row r="169" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V169" s="5" t="s">
-        <v>432</v>
+        <v>392</v>
       </c>
     </row>
     <row r="170" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V170" s="5" t="s">
-        <v>433</v>
+        <v>393</v>
       </c>
     </row>
     <row r="171" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V171" s="5" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
     </row>
     <row r="172" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V172" s="5" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
     </row>
     <row r="173" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V173" s="5" t="s">
-        <v>436</v>
+        <v>396</v>
       </c>
     </row>
     <row r="174" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V174" s="5" t="s">
-        <v>437</v>
+        <v>397</v>
       </c>
     </row>
     <row r="175" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V175" s="5" t="s">
-        <v>438</v>
+        <v>398</v>
       </c>
     </row>
     <row r="176" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V176" s="5" t="s">
-        <v>439</v>
+        <v>399</v>
       </c>
     </row>
     <row r="177" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V177" s="5" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
     </row>
     <row r="178" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V178" s="5" t="s">
-        <v>441</v>
+        <v>401</v>
       </c>
     </row>
     <row r="179" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V179" s="5" t="s">
-        <v>442</v>
+        <v>402</v>
       </c>
     </row>
     <row r="180" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V180" s="5" t="s">
-        <v>443</v>
+        <v>403</v>
       </c>
     </row>
     <row r="181" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V181" s="5" t="s">
-        <v>444</v>
+        <v>404</v>
       </c>
     </row>
     <row r="182" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V182" s="5" t="s">
-        <v>445</v>
+        <v>405</v>
       </c>
     </row>
     <row r="183" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V183" s="5" t="s">
-        <v>446</v>
+        <v>406</v>
       </c>
     </row>
     <row r="184" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V184" s="5" t="s">
-        <v>447</v>
+        <v>407</v>
       </c>
     </row>
     <row r="185" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V185" s="5" t="s">
-        <v>448</v>
+        <v>408</v>
       </c>
     </row>
     <row r="186" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V186" s="5" t="s">
-        <v>449</v>
+        <v>409</v>
       </c>
     </row>
     <row r="187" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V187" s="5" t="s">
-        <v>450</v>
+        <v>410</v>
       </c>
     </row>
     <row r="188" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V188" s="5" t="s">
-        <v>451</v>
+        <v>411</v>
       </c>
     </row>
     <row r="189" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V189" s="5" t="s">
-        <v>452</v>
+        <v>412</v>
       </c>
     </row>
     <row r="190" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V190" s="5" t="s">
-        <v>453</v>
+        <v>413</v>
       </c>
     </row>
     <row r="191" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V191" s="5" t="s">
-        <v>454</v>
+        <v>414</v>
       </c>
     </row>
     <row r="192" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V192" s="5" t="s">
-        <v>455</v>
+        <v>415</v>
       </c>
     </row>
     <row r="193" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V193" s="5" t="s">
-        <v>456</v>
+        <v>416</v>
       </c>
     </row>
     <row r="194" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V194" s="5" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
     </row>
     <row r="195" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V195" s="5" t="s">
-        <v>458</v>
+        <v>418</v>
       </c>
     </row>
     <row r="196" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V196" s="5" t="s">
-        <v>459</v>
+        <v>419</v>
       </c>
     </row>
     <row r="197" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V197" s="5" t="s">
-        <v>460</v>
+        <v>420</v>
       </c>
     </row>
     <row r="198" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V198" s="5" t="s">
-        <v>461</v>
+        <v>421</v>
       </c>
     </row>
     <row r="199" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V199" s="5" t="s">
-        <v>462</v>
+        <v>422</v>
       </c>
     </row>
     <row r="200" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V200" s="5" t="s">
-        <v>463</v>
+        <v>423</v>
       </c>
     </row>
     <row r="201" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V201" s="5" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
     </row>
     <row r="202" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V202" s="5" t="s">
-        <v>465</v>
+        <v>425</v>
       </c>
     </row>
     <row r="203" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V203" s="5" t="s">
-        <v>466</v>
+        <v>426</v>
       </c>
     </row>
     <row r="204" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V204" s="5" t="s">
-        <v>467</v>
+        <v>427</v>
       </c>
     </row>
     <row r="205" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V205" s="5" t="s">
-        <v>468</v>
+        <v>428</v>
       </c>
     </row>
     <row r="206" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V206" s="5" t="s">
-        <v>469</v>
+        <v>429</v>
       </c>
     </row>
     <row r="207" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V207" s="5" t="s">
-        <v>470</v>
+        <v>430</v>
       </c>
     </row>
     <row r="208" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V208" s="5" t="s">
-        <v>471</v>
+        <v>431</v>
       </c>
     </row>
     <row r="209" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V209" s="5" t="s">
-        <v>472</v>
+        <v>432</v>
       </c>
     </row>
     <row r="210" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V210" s="5" t="s">
-        <v>473</v>
+        <v>433</v>
       </c>
     </row>
     <row r="211" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V211" s="5" t="s">
-        <v>474</v>
+        <v>434</v>
       </c>
     </row>
     <row r="212" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V212" s="5" t="s">
-        <v>475</v>
+        <v>435</v>
       </c>
     </row>
     <row r="213" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V213" s="5" t="s">
-        <v>476</v>
+        <v>436</v>
       </c>
     </row>
     <row r="214" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V214" s="5" t="s">
-        <v>477</v>
+        <v>437</v>
       </c>
     </row>
     <row r="215" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V215" s="5" t="s">
-        <v>478</v>
+        <v>438</v>
       </c>
     </row>
     <row r="216" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V216" s="5" t="s">
-        <v>479</v>
+        <v>439</v>
       </c>
     </row>
     <row r="217" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V217" s="5" t="s">
-        <v>480</v>
+        <v>440</v>
       </c>
     </row>
     <row r="218" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V218" s="5" t="s">
-        <v>481</v>
+        <v>441</v>
       </c>
     </row>
     <row r="219" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V219" s="5" t="s">
-        <v>482</v>
+        <v>442</v>
       </c>
     </row>
     <row r="220" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V220" s="5" t="s">
-        <v>483</v>
+        <v>443</v>
       </c>
     </row>
     <row r="221" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V221" s="5" t="s">
-        <v>484</v>
+        <v>444</v>
       </c>
     </row>
     <row r="222" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V222" s="5" t="s">
-        <v>485</v>
+        <v>445</v>
       </c>
     </row>
     <row r="223" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V223" s="5" t="s">
-        <v>486</v>
+        <v>446</v>
       </c>
     </row>
     <row r="224" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V224" s="5" t="s">
-        <v>487</v>
+        <v>447</v>
       </c>
     </row>
     <row r="225" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V225" s="5" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
     </row>
     <row r="226" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V226" s="5" t="s">
-        <v>489</v>
+        <v>449</v>
       </c>
     </row>
     <row r="227" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V227" s="5" t="s">
-        <v>490</v>
+        <v>450</v>
       </c>
     </row>
     <row r="228" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V228" s="5" t="s">
-        <v>491</v>
+        <v>451</v>
       </c>
     </row>
     <row r="229" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V229" s="5" t="s">
-        <v>492</v>
+        <v>452</v>
       </c>
     </row>
     <row r="230" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V230" s="5" t="s">
-        <v>493</v>
+        <v>453</v>
       </c>
     </row>
     <row r="231" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V231" s="5" t="s">
-        <v>494</v>
+        <v>454</v>
       </c>
     </row>
     <row r="232" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V232" s="5" t="s">
-        <v>495</v>
+        <v>455</v>
       </c>
     </row>
     <row r="233" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V233" s="5" t="s">
-        <v>496</v>
+        <v>456</v>
       </c>
     </row>
     <row r="234" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V234" s="5" t="s">
-        <v>497</v>
+        <v>457</v>
       </c>
     </row>
     <row r="235" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V235" s="5" t="s">
-        <v>498</v>
+        <v>458</v>
       </c>
     </row>
     <row r="236" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V236" s="5" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
     </row>
     <row r="237" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V237" s="5" t="s">
-        <v>500</v>
+        <v>460</v>
       </c>
     </row>
     <row r="238" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V238" s="5" t="s">
-        <v>501</v>
+        <v>461</v>
       </c>
     </row>
     <row r="239" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V239" s="5" t="s">
-        <v>502</v>
+        <v>462</v>
       </c>
     </row>
     <row r="240" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V240" s="5" t="s">
-        <v>503</v>
+        <v>463</v>
       </c>
     </row>
     <row r="241" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V241" s="5" t="s">
-        <v>504</v>
+        <v>464</v>
       </c>
     </row>
     <row r="242" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V242" s="5" t="s">
-        <v>505</v>
+        <v>465</v>
       </c>
     </row>
     <row r="243" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V243" s="5" t="s">
-        <v>506</v>
+        <v>466</v>
       </c>
     </row>
     <row r="244" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V244" s="5" t="s">
-        <v>507</v>
+        <v>467</v>
       </c>
     </row>
     <row r="245" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V245" s="5" t="s">
-        <v>508</v>
+        <v>468</v>
       </c>
     </row>
     <row r="246" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V246" s="5" t="s">
-        <v>509</v>
+        <v>469</v>
       </c>
     </row>
     <row r="247" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V247" s="5" t="s">
-        <v>510</v>
+        <v>470</v>
       </c>
     </row>
     <row r="248" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V248" s="5" t="s">
-        <v>511</v>
+        <v>471</v>
       </c>
     </row>
     <row r="249" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V249" s="5" t="s">
-        <v>512</v>
+        <v>472</v>
       </c>
     </row>
     <row r="250" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V250" s="5" t="s">
-        <v>513</v>
+        <v>473</v>
       </c>
     </row>
     <row r="251" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V251" s="5" t="s">
-        <v>514</v>
+        <v>474</v>
       </c>
     </row>
     <row r="252" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V252" s="5" t="s">
-        <v>515</v>
+        <v>475</v>
       </c>
     </row>
     <row r="253" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V253" s="5" t="s">
-        <v>516</v>
+        <v>476</v>
       </c>
     </row>
     <row r="254" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V254" s="5" t="s">
-        <v>517</v>
+        <v>477</v>
       </c>
     </row>
     <row r="255" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V255" s="5" t="s">
-        <v>518</v>
+        <v>478</v>
       </c>
     </row>
     <row r="256" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V256" s="5" t="s">
-        <v>519</v>
+        <v>479</v>
       </c>
     </row>
     <row r="257" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V257" s="5" t="s">
-        <v>520</v>
+        <v>480</v>
       </c>
     </row>
     <row r="258" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V258" s="5" t="s">
-        <v>521</v>
+        <v>481</v>
       </c>
     </row>
     <row r="259" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V259" s="5" t="s">
-        <v>522</v>
+        <v>482</v>
       </c>
     </row>
     <row r="260" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V260" s="5" t="s">
-        <v>523</v>
+        <v>483</v>
       </c>
     </row>
     <row r="261" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V261" s="5" t="s">
-        <v>524</v>
+        <v>484</v>
       </c>
     </row>
     <row r="262" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V262" s="5" t="s">
-        <v>525</v>
+        <v>485</v>
       </c>
     </row>
     <row r="263" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V263" s="5" t="s">
-        <v>526</v>
+        <v>486</v>
       </c>
     </row>
     <row r="264" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V264" s="5" t="s">
-        <v>527</v>
+        <v>487</v>
       </c>
     </row>
     <row r="265" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V265" s="5" t="s">
-        <v>528</v>
+        <v>488</v>
       </c>
     </row>
     <row r="266" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V266" s="5" t="s">
-        <v>529</v>
+        <v>489</v>
       </c>
     </row>
     <row r="267" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V267" s="5" t="s">
-        <v>530</v>
+        <v>490</v>
       </c>
     </row>
     <row r="268" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V268" s="5" t="s">
-        <v>531</v>
+        <v>491</v>
       </c>
     </row>
     <row r="269" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V269" s="5" t="s">
-        <v>532</v>
+        <v>492</v>
       </c>
     </row>
     <row r="270" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V270" s="5" t="s">
-        <v>533</v>
+        <v>493</v>
       </c>
     </row>
     <row r="271" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V271" s="5" t="s">
-        <v>534</v>
+        <v>494</v>
       </c>
     </row>
     <row r="272" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V272" s="5" t="s">
-        <v>535</v>
+        <v>495</v>
       </c>
     </row>
     <row r="273" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V273" s="5" t="s">
-        <v>536</v>
+        <v>496</v>
       </c>
     </row>
     <row r="274" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V274" s="5" t="s">
-        <v>537</v>
+        <v>497</v>
       </c>
     </row>
     <row r="275" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V275" s="5" t="s">
-        <v>538</v>
+        <v>498</v>
       </c>
     </row>
     <row r="276" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V276" s="5" t="s">
-        <v>539</v>
+        <v>499</v>
       </c>
     </row>
     <row r="277" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V277" s="5" t="s">
-        <v>540</v>
+        <v>500</v>
       </c>
     </row>
     <row r="278" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V278" s="5" t="s">
-        <v>541</v>
+        <v>501</v>
       </c>
     </row>
     <row r="279" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V279" s="5" t="s">
-        <v>542</v>
+        <v>502</v>
       </c>
     </row>
     <row r="280" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V280" s="5" t="s">
-        <v>543</v>
+        <v>503</v>
       </c>
     </row>
     <row r="281" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V281" s="5" t="s">
-        <v>544</v>
+        <v>504</v>
       </c>
     </row>
     <row r="282" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V282" s="5" t="s">
-        <v>545</v>
+        <v>505</v>
       </c>
     </row>
     <row r="283" spans="22:22" x14ac:dyDescent="0.2">
       <c r="V283" s="5" t="s">
-        <v>546</v>
+        <v>506</v>
       </c>
     </row>
   </sheetData>

--- a/SI Barcoding Network FIMS template.xlsx
+++ b/SI Barcoding Network FIMS template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julia/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A4B007-A908-FE4B-BD48-DF02AA77676C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A794066D-9206-D04C-A846-1B92C15203CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3960" yWindow="500" windowWidth="28800" windowHeight="16080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1026" uniqueCount="963">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="965">
   <si>
     <t>~naan=21547~</t>
   </si>
@@ -2922,13 +2922,19 @@
   </si>
   <si>
     <t>Smithsonian Institution National Museum of Natural History</t>
+  </si>
+  <si>
+    <t>boldBIN</t>
+  </si>
+  <si>
+    <t>Add boldBIN provided by BOLD for COI barcodes here. For example: BOLD:AAF0202</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2945,6 +2951,12 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFF2600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2969,7 +2981,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2985,6 +2997,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3376,7 +3392,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AG36"/>
+  <dimension ref="A1:AH36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -3406,19 +3422,20 @@
     <col min="20" max="20" width="25" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="17" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="17" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="29.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>11</v>
       </c>
@@ -3485,141 +3502,144 @@
       <c r="V1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W1" s="6" t="s">
+        <v>963</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="19" x14ac:dyDescent="0.2">
-      <c r="W3" s="4"/>
-    </row>
-    <row r="4" spans="1:33" ht="19" x14ac:dyDescent="0.2">
-      <c r="W4" s="4"/>
-    </row>
-    <row r="5" spans="1:33" ht="19" x14ac:dyDescent="0.2">
-      <c r="W5" s="4"/>
-    </row>
-    <row r="6" spans="1:33" ht="19" x14ac:dyDescent="0.2">
-      <c r="W6" s="4"/>
-    </row>
-    <row r="7" spans="1:33" ht="19" x14ac:dyDescent="0.2">
-      <c r="W7" s="4"/>
-    </row>
-    <row r="8" spans="1:33" ht="19" x14ac:dyDescent="0.2">
-      <c r="W8" s="4"/>
-    </row>
-    <row r="9" spans="1:33" ht="19" x14ac:dyDescent="0.2">
-      <c r="W9" s="4"/>
-    </row>
-    <row r="10" spans="1:33" ht="19" x14ac:dyDescent="0.2">
-      <c r="W10" s="4"/>
-    </row>
-    <row r="11" spans="1:33" ht="19" x14ac:dyDescent="0.2">
-      <c r="W11" s="4"/>
-    </row>
-    <row r="12" spans="1:33" ht="19" x14ac:dyDescent="0.2">
-      <c r="W12" s="4"/>
-    </row>
-    <row r="13" spans="1:33" ht="19" x14ac:dyDescent="0.2">
-      <c r="W13" s="2"/>
-    </row>
-    <row r="14" spans="1:33" ht="19" x14ac:dyDescent="0.2">
-      <c r="W14" s="2"/>
-    </row>
-    <row r="15" spans="1:33" ht="19" x14ac:dyDescent="0.2">
-      <c r="W15" s="2"/>
-    </row>
-    <row r="16" spans="1:33" ht="19" x14ac:dyDescent="0.2">
-      <c r="W16" s="2"/>
-    </row>
-    <row r="17" spans="23:23" ht="19" x14ac:dyDescent="0.2">
-      <c r="W17" s="2"/>
-    </row>
-    <row r="18" spans="23:23" ht="19" x14ac:dyDescent="0.2">
-      <c r="W18" s="2"/>
-    </row>
-    <row r="19" spans="23:23" ht="19" x14ac:dyDescent="0.2">
-      <c r="W19" s="2"/>
-    </row>
-    <row r="20" spans="23:23" ht="19" x14ac:dyDescent="0.2">
-      <c r="W20" s="2"/>
-    </row>
-    <row r="21" spans="23:23" ht="19" x14ac:dyDescent="0.2">
-      <c r="W21" s="2"/>
-    </row>
-    <row r="22" spans="23:23" ht="19" x14ac:dyDescent="0.2">
-      <c r="W22" s="2"/>
-    </row>
-    <row r="23" spans="23:23" ht="19" x14ac:dyDescent="0.2">
-      <c r="W23" s="2"/>
-    </row>
-    <row r="24" spans="23:23" ht="19" x14ac:dyDescent="0.2">
-      <c r="W24" s="2"/>
-    </row>
-    <row r="25" spans="23:23" ht="19" x14ac:dyDescent="0.2">
-      <c r="W25" s="2"/>
-    </row>
-    <row r="26" spans="23:23" ht="19" x14ac:dyDescent="0.2">
-      <c r="W26" s="2"/>
-    </row>
-    <row r="27" spans="23:23" ht="19" x14ac:dyDescent="0.2">
-      <c r="W27" s="2"/>
-    </row>
-    <row r="28" spans="23:23" ht="19" x14ac:dyDescent="0.2">
-      <c r="W28" s="2"/>
-    </row>
-    <row r="29" spans="23:23" ht="19" x14ac:dyDescent="0.2">
-      <c r="W29" s="2"/>
-    </row>
-    <row r="30" spans="23:23" ht="19" x14ac:dyDescent="0.2">
-      <c r="W30" s="2"/>
-    </row>
-    <row r="31" spans="23:23" ht="19" x14ac:dyDescent="0.2">
-      <c r="W31" s="2"/>
-    </row>
-    <row r="32" spans="23:23" ht="19" x14ac:dyDescent="0.2">
-      <c r="W32" s="2"/>
-    </row>
-    <row r="33" spans="23:23" ht="19" x14ac:dyDescent="0.2">
-      <c r="W33" s="2"/>
-    </row>
-    <row r="34" spans="23:23" ht="19" x14ac:dyDescent="0.2">
-      <c r="W34" s="2"/>
-    </row>
-    <row r="35" spans="23:23" ht="19" x14ac:dyDescent="0.2">
-      <c r="W35" s="2"/>
-    </row>
-    <row r="36" spans="23:23" ht="19" x14ac:dyDescent="0.2">
-      <c r="W36" s="2"/>
+    <row r="3" spans="1:34" ht="19" x14ac:dyDescent="0.2">
+      <c r="X3" s="4"/>
+    </row>
+    <row r="4" spans="1:34" ht="19" x14ac:dyDescent="0.2">
+      <c r="X4" s="4"/>
+    </row>
+    <row r="5" spans="1:34" ht="19" x14ac:dyDescent="0.2">
+      <c r="X5" s="4"/>
+    </row>
+    <row r="6" spans="1:34" ht="19" x14ac:dyDescent="0.2">
+      <c r="X6" s="4"/>
+    </row>
+    <row r="7" spans="1:34" ht="19" x14ac:dyDescent="0.2">
+      <c r="X7" s="4"/>
+    </row>
+    <row r="8" spans="1:34" ht="19" x14ac:dyDescent="0.2">
+      <c r="X8" s="4"/>
+    </row>
+    <row r="9" spans="1:34" ht="19" x14ac:dyDescent="0.2">
+      <c r="X9" s="4"/>
+    </row>
+    <row r="10" spans="1:34" ht="19" x14ac:dyDescent="0.2">
+      <c r="X10" s="4"/>
+    </row>
+    <row r="11" spans="1:34" ht="19" x14ac:dyDescent="0.2">
+      <c r="X11" s="4"/>
+    </row>
+    <row r="12" spans="1:34" ht="19" x14ac:dyDescent="0.2">
+      <c r="X12" s="4"/>
+    </row>
+    <row r="13" spans="1:34" ht="19" x14ac:dyDescent="0.2">
+      <c r="X13" s="2"/>
+    </row>
+    <row r="14" spans="1:34" ht="19" x14ac:dyDescent="0.2">
+      <c r="X14" s="2"/>
+    </row>
+    <row r="15" spans="1:34" ht="19" x14ac:dyDescent="0.2">
+      <c r="X15" s="2"/>
+    </row>
+    <row r="16" spans="1:34" ht="19" x14ac:dyDescent="0.2">
+      <c r="X16" s="2"/>
+    </row>
+    <row r="17" spans="24:24" ht="19" x14ac:dyDescent="0.2">
+      <c r="X17" s="2"/>
+    </row>
+    <row r="18" spans="24:24" ht="19" x14ac:dyDescent="0.2">
+      <c r="X18" s="2"/>
+    </row>
+    <row r="19" spans="24:24" ht="19" x14ac:dyDescent="0.2">
+      <c r="X19" s="2"/>
+    </row>
+    <row r="20" spans="24:24" ht="19" x14ac:dyDescent="0.2">
+      <c r="X20" s="2"/>
+    </row>
+    <row r="21" spans="24:24" ht="19" x14ac:dyDescent="0.2">
+      <c r="X21" s="2"/>
+    </row>
+    <row r="22" spans="24:24" ht="19" x14ac:dyDescent="0.2">
+      <c r="X22" s="2"/>
+    </row>
+    <row r="23" spans="24:24" ht="19" x14ac:dyDescent="0.2">
+      <c r="X23" s="2"/>
+    </row>
+    <row r="24" spans="24:24" ht="19" x14ac:dyDescent="0.2">
+      <c r="X24" s="2"/>
+    </row>
+    <row r="25" spans="24:24" ht="19" x14ac:dyDescent="0.2">
+      <c r="X25" s="2"/>
+    </row>
+    <row r="26" spans="24:24" ht="19" x14ac:dyDescent="0.2">
+      <c r="X26" s="2"/>
+    </row>
+    <row r="27" spans="24:24" ht="19" x14ac:dyDescent="0.2">
+      <c r="X27" s="2"/>
+    </row>
+    <row r="28" spans="24:24" ht="19" x14ac:dyDescent="0.2">
+      <c r="X28" s="2"/>
+    </row>
+    <row r="29" spans="24:24" ht="19" x14ac:dyDescent="0.2">
+      <c r="X29" s="2"/>
+    </row>
+    <row r="30" spans="24:24" ht="19" x14ac:dyDescent="0.2">
+      <c r="X30" s="2"/>
+    </row>
+    <row r="31" spans="24:24" ht="19" x14ac:dyDescent="0.2">
+      <c r="X31" s="2"/>
+    </row>
+    <row r="32" spans="24:24" ht="19" x14ac:dyDescent="0.2">
+      <c r="X32" s="2"/>
+    </row>
+    <row r="33" spans="24:24" ht="19" x14ac:dyDescent="0.2">
+      <c r="X33" s="2"/>
+    </row>
+    <row r="34" spans="24:24" ht="19" x14ac:dyDescent="0.2">
+      <c r="X34" s="2"/>
+    </row>
+    <row r="35" spans="24:24" ht="19" x14ac:dyDescent="0.2">
+      <c r="X35" s="2"/>
+    </row>
+    <row r="36" spans="24:24" ht="19" x14ac:dyDescent="0.2">
+      <c r="X36" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3646,10 +3666,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3698,255 +3718,263 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>26</v>
+    <row r="5" spans="1:4" ht="33" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>963</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>964</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+    <row r="8" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="80" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
+    <row r="9" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B11" s="3" t="s">
         <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="64" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="64" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="19" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="19" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B15" s="3" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B17" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+    <row r="18" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+    <row r="19" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B19" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="112" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+    <row r="20" spans="1:3" ht="112" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+    <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B21" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+    <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B22" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
+    <row r="23" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B23" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="48" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+    <row r="24" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C24" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+    <row r="25" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="96" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+    <row r="28" spans="1:3" ht="96" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B28" s="3" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B30" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
+    <row r="31" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B31" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+    <row r="32" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
+    <row r="33" spans="1:2" ht="19" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B33" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="96" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
+    <row r="34" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B34" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="48" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
+    <row r="35" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B35" s="3" t="s">
         <v>106</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:H94">
-    <sortCondition ref="H59:H94"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="H2:H95">
+    <sortCondition ref="H60:H95"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
